--- a/data/analysis_numeric_feature.xlsx
+++ b/data/analysis_numeric_feature.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio.penta/Documents/workspace/jupyter/santander/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ED1E19-FF7D-BF4A-A7DB-21691E782B58}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60069880-7A30-C048-A236-CB61AAC632E9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{E7E3573B-05D4-5040-BBE9-E43A00876F21}"/>
+    <workbookView xWindow="2880" yWindow="1460" windowWidth="28040" windowHeight="17440" xr2:uid="{E7E3573B-05D4-5040-BBE9-E43A00876F21}"/>
   </bookViews>
   <sheets>
     <sheet name="stats_nobinary_feature" sheetId="1" r:id="rId1"/>
     <sheet name="stat_nobinary_feature_std_high" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="stat_nobinary_attributes_clean_normalized_with_caim" localSheetId="0">stats_nobinary_feature!$B$42:$HY$51</definedName>
     <definedName name="stat_nobinary_attributes_clean_normalized_with_caim_1" localSheetId="0">stats_nobinary_feature!$B$17:$HY$26</definedName>
     <definedName name="stat_nobinary_attributes_clean_normalized_with_caim_min_max_1" localSheetId="0">stats_nobinary_feature!$B$30:$HY$39</definedName>
     <definedName name="stat_numeric_attributes" localSheetId="0">stats_nobinary_feature!$B$1:$HY$9</definedName>
@@ -34,8 +35,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{F8AB2747-E9EA-B545-8A27-717C54C26F4E}" name="stat_nobinary_attributes_clean_normalized_with_caim_min_max1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/antonio.penta/Documents/workspace/jupyter/santander/data/stat_nobinary_attributes_clean_normalized_with_caim_min_max.csv" comma="1">
+  <connection id="1" xr16:uid="{A90B4594-6A20-E647-B760-962E1DB6ABBB}" name="stat_nobinary_attributes_clean_normalized_with_caim" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/antonio.penta/Documents/workspace/jupyter/santander/data/stat_nobinary_attributes_clean_normalized_with_caim.csv" comma="1">
       <textFields count="232">
         <textField/>
         <textField/>
@@ -272,8 +273,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{8CF5CB65-5803-2A40-8E99-13BB20972169}" name="stat_nobinary_attributes_clean_normalized_with_caim1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/antonio.penta/Documents/workspace/jupyter/santander/data/stat_nobinary_attributes_clean_normalized_with_caim.csv" comma="1">
+  <connection id="2" xr16:uid="{F8AB2747-E9EA-B545-8A27-717C54C26F4E}" name="stat_nobinary_attributes_clean_normalized_with_caim_min_max1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/antonio.penta/Documents/workspace/jupyter/santander/data/stat_nobinary_attributes_clean_normalized_with_caim_min_max.csv" comma="1">
       <textFields count="232">
         <textField/>
         <textField/>
@@ -510,8 +511,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{33EE4D65-0FCC-6D43-8D6E-231269AF9C8C}" name="stat_numeric_attributes" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/antonio.penta/Documents/workspace/jupyter/santander/data/stat_numeric_attributes.csv" space="1" comma="1" consecutive="1">
+  <connection id="3" xr16:uid="{8CF5CB65-5803-2A40-8E99-13BB20972169}" name="stat_nobinary_attributes_clean_normalized_with_caim1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/antonio.penta/Documents/workspace/jupyter/santander/data/stat_nobinary_attributes_clean_normalized_with_caim.csv" comma="1">
       <textFields count="232">
         <textField/>
         <textField/>
@@ -748,9 +749,140 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{AB629667-4ADB-814A-8E71-48FEF955BF7C}" name="stat_numeric_attributes_filtered_and_replace" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/antonio.penta/Documents/workspace/jupyter/santander/data/stat_numeric_attributes_filtered_and_replace.csv" space="1" comma="1" consecutive="1">
-      <textFields count="101">
+  <connection id="4" xr16:uid="{33EE4D65-0FCC-6D43-8D6E-231269AF9C8C}" name="stat_numeric_attributes" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/antonio.penta/Documents/workspace/jupyter/santander/data/stat_numeric_attributes.csv" space="1" comma="1" consecutive="1">
+      <textFields count="232">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -855,7 +987,114 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{827F92CB-D6DD-9849-97BC-46CC75FAD5C7}" name="stat_numeric_attributes_filtered2" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" xr16:uid="{AB629667-4ADB-814A-8E71-48FEF955BF7C}" name="stat_numeric_attributes_filtered_and_replace" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/antonio.penta/Documents/workspace/jupyter/santander/data/stat_numeric_attributes_filtered_and_replace.csv" space="1" comma="1" consecutive="1">
+      <textFields count="101">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" xr16:uid="{827F92CB-D6DD-9849-97BC-46CC75FAD5C7}" name="stat_numeric_attributes_filtered2" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/antonio.penta/Documents/workspace/jupyter/santander/data/stat_numeric_attributes_filtered.csv" comma="1">
       <textFields count="101">
         <textField/>
@@ -966,7 +1205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="248">
   <si>
     <t>var3</t>
   </si>
@@ -1799,7 +2038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1812,6 +2051,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1830,23 +2070,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="stat_nobinary_attributes_clean_normalized_with_caim_min_max_1" connectionId="1" xr16:uid="{1355CDD6-123B-5A41-AFED-8BC90A96F575}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="stat_nobinary_attributes_clean_normalized_with_caim" connectionId="1" xr16:uid="{AC76D98F-26A5-5F4F-9150-F9359D932F01}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="stat_nobinary_attributes_clean_normalized_with_caim_1" connectionId="2" xr16:uid="{A44035C7-B425-CC4C-902A-B8EBD197E7C3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="stat_nobinary_attributes_clean_normalized_with_caim_min_max_1" connectionId="2" xr16:uid="{1355CDD6-123B-5A41-AFED-8BC90A96F575}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="stat_numeric_attributes" connectionId="3" xr16:uid="{C03B6E9B-43F4-C64A-9CD2-EA092065A48E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="stat_nobinary_attributes_clean_normalized_with_caim_1" connectionId="3" xr16:uid="{A44035C7-B425-CC4C-902A-B8EBD197E7C3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="stat_numeric_attributes_filtered_and_replace" connectionId="4" xr16:uid="{65388B2F-275E-F04C-8821-B26C6181B7ED}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="stat_numeric_attributes" connectionId="4" xr16:uid="{C03B6E9B-43F4-C64A-9CD2-EA092065A48E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="stat_numeric_attributes_filtered" connectionId="5" xr16:uid="{AE2B9843-CAD2-1048-8C6A-3EBC46A667AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="stat_numeric_attributes_filtered_and_replace" connectionId="5" xr16:uid="{65388B2F-275E-F04C-8821-B26C6181B7ED}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="stat_numeric_attributes_filtered" connectionId="6" xr16:uid="{AE2B9843-CAD2-1048-8C6A-3EBC46A667AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2146,17 +2390,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268B389D-9BC3-1249-99A4-9AE17164273F}">
-  <dimension ref="A1:HY39"/>
+  <dimension ref="A1:HY51"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="23.5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="22.5" bestFit="1" customWidth="1"/>
@@ -2167,49 +2410,24 @@
     <col min="18" max="19" width="22.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="30" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15.5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="45" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="50" max="51" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="52" max="53" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="54" max="55" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="56" max="57" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="66" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="73" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="80" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="80" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="81" max="82" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="84" max="102" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="102" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="103" max="105" width="24.5" bestFit="1" customWidth="1"/>
     <col min="106" max="106" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="25.5" bestFit="1" customWidth="1"/>
@@ -2241,7 +2459,7 @@
     <col min="139" max="139" width="22" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="21.5" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="20" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="21.83203125" bestFit="1" customWidth="1"/>
@@ -2296,7 +2514,7 @@
     <col min="226" max="227" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="228" max="229" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="230" max="231" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="232" max="233" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="232" max="233" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:233" x14ac:dyDescent="0.2">
@@ -22631,6 +22849,6986 @@
         <v>57736</v>
       </c>
       <c r="HY39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:233" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" t="s">
+        <v>9</v>
+      </c>
+      <c r="M42" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" t="s">
+        <v>11</v>
+      </c>
+      <c r="O42" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>14</v>
+      </c>
+      <c r="R42" t="s">
+        <v>15</v>
+      </c>
+      <c r="S42" t="s">
+        <v>16</v>
+      </c>
+      <c r="T42" t="s">
+        <v>17</v>
+      </c>
+      <c r="U42" t="s">
+        <v>18</v>
+      </c>
+      <c r="V42" t="s">
+        <v>19</v>
+      </c>
+      <c r="W42" t="s">
+        <v>20</v>
+      </c>
+      <c r="X42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK42" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL42" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN42" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO42" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ42" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR42" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS42" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT42" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU42" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV42" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW42" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX42" t="s">
+        <v>73</v>
+      </c>
+      <c r="BY42" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ42" t="s">
+        <v>75</v>
+      </c>
+      <c r="CA42" t="s">
+        <v>76</v>
+      </c>
+      <c r="CB42" t="s">
+        <v>77</v>
+      </c>
+      <c r="CC42" t="s">
+        <v>78</v>
+      </c>
+      <c r="CD42" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE42" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF42" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG42" t="s">
+        <v>82</v>
+      </c>
+      <c r="CH42" t="s">
+        <v>83</v>
+      </c>
+      <c r="CI42" t="s">
+        <v>84</v>
+      </c>
+      <c r="CJ42" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK42" t="s">
+        <v>86</v>
+      </c>
+      <c r="CL42" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM42" t="s">
+        <v>88</v>
+      </c>
+      <c r="CN42" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO42" t="s">
+        <v>90</v>
+      </c>
+      <c r="CP42" t="s">
+        <v>91</v>
+      </c>
+      <c r="CQ42" t="s">
+        <v>92</v>
+      </c>
+      <c r="CR42" t="s">
+        <v>93</v>
+      </c>
+      <c r="CS42" t="s">
+        <v>94</v>
+      </c>
+      <c r="CT42" t="s">
+        <v>95</v>
+      </c>
+      <c r="CU42" t="s">
+        <v>96</v>
+      </c>
+      <c r="CV42" t="s">
+        <v>97</v>
+      </c>
+      <c r="CW42" t="s">
+        <v>98</v>
+      </c>
+      <c r="CX42" t="s">
+        <v>99</v>
+      </c>
+      <c r="CY42" t="s">
+        <v>100</v>
+      </c>
+      <c r="CZ42" t="s">
+        <v>101</v>
+      </c>
+      <c r="DA42" t="s">
+        <v>102</v>
+      </c>
+      <c r="DB42" t="s">
+        <v>103</v>
+      </c>
+      <c r="DC42" t="s">
+        <v>104</v>
+      </c>
+      <c r="DD42" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE42" t="s">
+        <v>106</v>
+      </c>
+      <c r="DF42" t="s">
+        <v>107</v>
+      </c>
+      <c r="DG42" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH42" t="s">
+        <v>109</v>
+      </c>
+      <c r="DI42" t="s">
+        <v>110</v>
+      </c>
+      <c r="DJ42" t="s">
+        <v>111</v>
+      </c>
+      <c r="DK42" t="s">
+        <v>112</v>
+      </c>
+      <c r="DL42" t="s">
+        <v>113</v>
+      </c>
+      <c r="DM42" t="s">
+        <v>114</v>
+      </c>
+      <c r="DN42" t="s">
+        <v>115</v>
+      </c>
+      <c r="DO42" t="s">
+        <v>116</v>
+      </c>
+      <c r="DP42" t="s">
+        <v>117</v>
+      </c>
+      <c r="DQ42" t="s">
+        <v>118</v>
+      </c>
+      <c r="DR42" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS42" t="s">
+        <v>120</v>
+      </c>
+      <c r="DT42" t="s">
+        <v>121</v>
+      </c>
+      <c r="DU42" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV42" t="s">
+        <v>123</v>
+      </c>
+      <c r="DW42" t="s">
+        <v>124</v>
+      </c>
+      <c r="DX42" t="s">
+        <v>125</v>
+      </c>
+      <c r="DY42" t="s">
+        <v>126</v>
+      </c>
+      <c r="DZ42" t="s">
+        <v>127</v>
+      </c>
+      <c r="EA42" t="s">
+        <v>128</v>
+      </c>
+      <c r="EB42" t="s">
+        <v>129</v>
+      </c>
+      <c r="EC42" t="s">
+        <v>130</v>
+      </c>
+      <c r="ED42" t="s">
+        <v>131</v>
+      </c>
+      <c r="EE42" t="s">
+        <v>132</v>
+      </c>
+      <c r="EF42" t="s">
+        <v>133</v>
+      </c>
+      <c r="EG42" t="s">
+        <v>134</v>
+      </c>
+      <c r="EH42" t="s">
+        <v>135</v>
+      </c>
+      <c r="EI42" t="s">
+        <v>136</v>
+      </c>
+      <c r="EJ42" t="s">
+        <v>137</v>
+      </c>
+      <c r="EK42" t="s">
+        <v>138</v>
+      </c>
+      <c r="EL42" t="s">
+        <v>139</v>
+      </c>
+      <c r="EM42" t="s">
+        <v>140</v>
+      </c>
+      <c r="EN42" t="s">
+        <v>141</v>
+      </c>
+      <c r="EO42" t="s">
+        <v>142</v>
+      </c>
+      <c r="EP42" t="s">
+        <v>143</v>
+      </c>
+      <c r="EQ42" t="s">
+        <v>144</v>
+      </c>
+      <c r="ER42" t="s">
+        <v>145</v>
+      </c>
+      <c r="ES42" t="s">
+        <v>146</v>
+      </c>
+      <c r="ET42" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU42" t="s">
+        <v>148</v>
+      </c>
+      <c r="EV42" t="s">
+        <v>149</v>
+      </c>
+      <c r="EW42" t="s">
+        <v>150</v>
+      </c>
+      <c r="EX42" t="s">
+        <v>151</v>
+      </c>
+      <c r="EY42" t="s">
+        <v>152</v>
+      </c>
+      <c r="EZ42" t="s">
+        <v>153</v>
+      </c>
+      <c r="FA42" t="s">
+        <v>154</v>
+      </c>
+      <c r="FB42" t="s">
+        <v>155</v>
+      </c>
+      <c r="FC42" t="s">
+        <v>156</v>
+      </c>
+      <c r="FD42" t="s">
+        <v>157</v>
+      </c>
+      <c r="FE42" t="s">
+        <v>158</v>
+      </c>
+      <c r="FF42" t="s">
+        <v>159</v>
+      </c>
+      <c r="FG42" t="s">
+        <v>160</v>
+      </c>
+      <c r="FH42" t="s">
+        <v>161</v>
+      </c>
+      <c r="FI42" t="s">
+        <v>162</v>
+      </c>
+      <c r="FJ42" t="s">
+        <v>163</v>
+      </c>
+      <c r="FK42" t="s">
+        <v>164</v>
+      </c>
+      <c r="FL42" t="s">
+        <v>165</v>
+      </c>
+      <c r="FM42" t="s">
+        <v>166</v>
+      </c>
+      <c r="FN42" t="s">
+        <v>167</v>
+      </c>
+      <c r="FO42" t="s">
+        <v>168</v>
+      </c>
+      <c r="FP42" t="s">
+        <v>169</v>
+      </c>
+      <c r="FQ42" t="s">
+        <v>170</v>
+      </c>
+      <c r="FR42" t="s">
+        <v>171</v>
+      </c>
+      <c r="FS42" t="s">
+        <v>172</v>
+      </c>
+      <c r="FT42" t="s">
+        <v>173</v>
+      </c>
+      <c r="FU42" t="s">
+        <v>174</v>
+      </c>
+      <c r="FV42" t="s">
+        <v>175</v>
+      </c>
+      <c r="FW42" t="s">
+        <v>176</v>
+      </c>
+      <c r="FX42" t="s">
+        <v>177</v>
+      </c>
+      <c r="FY42" t="s">
+        <v>178</v>
+      </c>
+      <c r="FZ42" t="s">
+        <v>179</v>
+      </c>
+      <c r="GA42" t="s">
+        <v>180</v>
+      </c>
+      <c r="GB42" t="s">
+        <v>181</v>
+      </c>
+      <c r="GC42" t="s">
+        <v>182</v>
+      </c>
+      <c r="GD42" t="s">
+        <v>183</v>
+      </c>
+      <c r="GE42" t="s">
+        <v>184</v>
+      </c>
+      <c r="GF42" t="s">
+        <v>185</v>
+      </c>
+      <c r="GG42" t="s">
+        <v>186</v>
+      </c>
+      <c r="GH42" t="s">
+        <v>187</v>
+      </c>
+      <c r="GI42" t="s">
+        <v>188</v>
+      </c>
+      <c r="GJ42" t="s">
+        <v>189</v>
+      </c>
+      <c r="GK42" t="s">
+        <v>190</v>
+      </c>
+      <c r="GL42" t="s">
+        <v>191</v>
+      </c>
+      <c r="GM42" t="s">
+        <v>192</v>
+      </c>
+      <c r="GN42" t="s">
+        <v>193</v>
+      </c>
+      <c r="GO42" t="s">
+        <v>194</v>
+      </c>
+      <c r="GP42" t="s">
+        <v>195</v>
+      </c>
+      <c r="GQ42" t="s">
+        <v>196</v>
+      </c>
+      <c r="GR42" t="s">
+        <v>197</v>
+      </c>
+      <c r="GS42" t="s">
+        <v>198</v>
+      </c>
+      <c r="GT42" t="s">
+        <v>199</v>
+      </c>
+      <c r="GU42" t="s">
+        <v>200</v>
+      </c>
+      <c r="GV42" t="s">
+        <v>201</v>
+      </c>
+      <c r="GW42" t="s">
+        <v>202</v>
+      </c>
+      <c r="GX42" t="s">
+        <v>203</v>
+      </c>
+      <c r="GY42" t="s">
+        <v>204</v>
+      </c>
+      <c r="GZ42" t="s">
+        <v>205</v>
+      </c>
+      <c r="HA42" t="s">
+        <v>206</v>
+      </c>
+      <c r="HB42" t="s">
+        <v>207</v>
+      </c>
+      <c r="HC42" t="s">
+        <v>208</v>
+      </c>
+      <c r="HD42" t="s">
+        <v>209</v>
+      </c>
+      <c r="HE42" t="s">
+        <v>210</v>
+      </c>
+      <c r="HF42" t="s">
+        <v>211</v>
+      </c>
+      <c r="HG42" t="s">
+        <v>212</v>
+      </c>
+      <c r="HH42" t="s">
+        <v>213</v>
+      </c>
+      <c r="HI42" t="s">
+        <v>214</v>
+      </c>
+      <c r="HJ42" t="s">
+        <v>215</v>
+      </c>
+      <c r="HK42" t="s">
+        <v>216</v>
+      </c>
+      <c r="HL42" t="s">
+        <v>217</v>
+      </c>
+      <c r="HM42" t="s">
+        <v>218</v>
+      </c>
+      <c r="HN42" t="s">
+        <v>219</v>
+      </c>
+      <c r="HO42" t="s">
+        <v>220</v>
+      </c>
+      <c r="HP42" t="s">
+        <v>221</v>
+      </c>
+      <c r="HQ42" t="s">
+        <v>222</v>
+      </c>
+      <c r="HR42" t="s">
+        <v>223</v>
+      </c>
+      <c r="HS42" t="s">
+        <v>224</v>
+      </c>
+      <c r="HT42" t="s">
+        <v>225</v>
+      </c>
+      <c r="HU42" t="s">
+        <v>226</v>
+      </c>
+      <c r="HV42" t="s">
+        <v>227</v>
+      </c>
+      <c r="HW42" t="s">
+        <v>228</v>
+      </c>
+      <c r="HX42" t="s">
+        <v>229</v>
+      </c>
+      <c r="HY42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="2:233" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43">
+        <v>76020</v>
+      </c>
+      <c r="D43">
+        <v>76020</v>
+      </c>
+      <c r="E43">
+        <v>76020</v>
+      </c>
+      <c r="F43">
+        <v>76020</v>
+      </c>
+      <c r="G43">
+        <v>76020</v>
+      </c>
+      <c r="H43">
+        <v>76020</v>
+      </c>
+      <c r="I43">
+        <v>76020</v>
+      </c>
+      <c r="J43">
+        <v>76020</v>
+      </c>
+      <c r="K43">
+        <v>76020</v>
+      </c>
+      <c r="L43">
+        <v>76020</v>
+      </c>
+      <c r="M43">
+        <v>76020</v>
+      </c>
+      <c r="N43">
+        <v>76020</v>
+      </c>
+      <c r="O43">
+        <v>76020</v>
+      </c>
+      <c r="P43">
+        <v>76020</v>
+      </c>
+      <c r="Q43">
+        <v>76020</v>
+      </c>
+      <c r="R43">
+        <v>76020</v>
+      </c>
+      <c r="S43">
+        <v>76020</v>
+      </c>
+      <c r="T43">
+        <v>76020</v>
+      </c>
+      <c r="U43">
+        <v>76020</v>
+      </c>
+      <c r="V43">
+        <v>76020</v>
+      </c>
+      <c r="W43">
+        <v>76020</v>
+      </c>
+      <c r="X43">
+        <v>76020</v>
+      </c>
+      <c r="Y43">
+        <v>76020</v>
+      </c>
+      <c r="Z43">
+        <v>76020</v>
+      </c>
+      <c r="AA43">
+        <v>76020</v>
+      </c>
+      <c r="AB43">
+        <v>76020</v>
+      </c>
+      <c r="AC43">
+        <v>76020</v>
+      </c>
+      <c r="AD43">
+        <v>76020</v>
+      </c>
+      <c r="AE43">
+        <v>76020</v>
+      </c>
+      <c r="AF43">
+        <v>76020</v>
+      </c>
+      <c r="AG43">
+        <v>76020</v>
+      </c>
+      <c r="AH43">
+        <v>76020</v>
+      </c>
+      <c r="AI43">
+        <v>76020</v>
+      </c>
+      <c r="AJ43">
+        <v>76020</v>
+      </c>
+      <c r="AK43">
+        <v>76020</v>
+      </c>
+      <c r="AL43">
+        <v>76020</v>
+      </c>
+      <c r="AM43">
+        <v>76020</v>
+      </c>
+      <c r="AN43">
+        <v>76020</v>
+      </c>
+      <c r="AO43">
+        <v>76020</v>
+      </c>
+      <c r="AP43">
+        <v>76020</v>
+      </c>
+      <c r="AQ43">
+        <v>76020</v>
+      </c>
+      <c r="AR43">
+        <v>76020</v>
+      </c>
+      <c r="AS43">
+        <v>76020</v>
+      </c>
+      <c r="AT43">
+        <v>76020</v>
+      </c>
+      <c r="AU43">
+        <v>76020</v>
+      </c>
+      <c r="AV43">
+        <v>76020</v>
+      </c>
+      <c r="AW43">
+        <v>76020</v>
+      </c>
+      <c r="AX43">
+        <v>76020</v>
+      </c>
+      <c r="AY43">
+        <v>76020</v>
+      </c>
+      <c r="AZ43">
+        <v>76020</v>
+      </c>
+      <c r="BA43">
+        <v>76020</v>
+      </c>
+      <c r="BB43">
+        <v>76020</v>
+      </c>
+      <c r="BC43">
+        <v>76020</v>
+      </c>
+      <c r="BD43">
+        <v>76020</v>
+      </c>
+      <c r="BE43">
+        <v>76020</v>
+      </c>
+      <c r="BF43">
+        <v>76020</v>
+      </c>
+      <c r="BG43">
+        <v>76020</v>
+      </c>
+      <c r="BH43">
+        <v>76020</v>
+      </c>
+      <c r="BI43">
+        <v>76020</v>
+      </c>
+      <c r="BJ43">
+        <v>76020</v>
+      </c>
+      <c r="BK43">
+        <v>76020</v>
+      </c>
+      <c r="BL43">
+        <v>76020</v>
+      </c>
+      <c r="BM43">
+        <v>76020</v>
+      </c>
+      <c r="BN43">
+        <v>76020</v>
+      </c>
+      <c r="BO43">
+        <v>76020</v>
+      </c>
+      <c r="BP43">
+        <v>76020</v>
+      </c>
+      <c r="BQ43">
+        <v>76020</v>
+      </c>
+      <c r="BR43">
+        <v>76020</v>
+      </c>
+      <c r="BS43">
+        <v>76020</v>
+      </c>
+      <c r="BT43">
+        <v>76020</v>
+      </c>
+      <c r="BU43">
+        <v>76020</v>
+      </c>
+      <c r="BV43">
+        <v>76020</v>
+      </c>
+      <c r="BW43">
+        <v>76020</v>
+      </c>
+      <c r="BX43">
+        <v>76020</v>
+      </c>
+      <c r="BY43">
+        <v>76020</v>
+      </c>
+      <c r="BZ43">
+        <v>76020</v>
+      </c>
+      <c r="CA43">
+        <v>76020</v>
+      </c>
+      <c r="CB43">
+        <v>76020</v>
+      </c>
+      <c r="CC43">
+        <v>76020</v>
+      </c>
+      <c r="CD43">
+        <v>76020</v>
+      </c>
+      <c r="CE43">
+        <v>76020</v>
+      </c>
+      <c r="CF43">
+        <v>76020</v>
+      </c>
+      <c r="CG43">
+        <v>76020</v>
+      </c>
+      <c r="CH43">
+        <v>76020</v>
+      </c>
+      <c r="CI43">
+        <v>76020</v>
+      </c>
+      <c r="CJ43">
+        <v>76020</v>
+      </c>
+      <c r="CK43">
+        <v>76020</v>
+      </c>
+      <c r="CL43">
+        <v>76020</v>
+      </c>
+      <c r="CM43">
+        <v>76020</v>
+      </c>
+      <c r="CN43">
+        <v>76020</v>
+      </c>
+      <c r="CO43">
+        <v>76020</v>
+      </c>
+      <c r="CP43">
+        <v>76020</v>
+      </c>
+      <c r="CQ43">
+        <v>76020</v>
+      </c>
+      <c r="CR43">
+        <v>76020</v>
+      </c>
+      <c r="CS43">
+        <v>76020</v>
+      </c>
+      <c r="CT43">
+        <v>76020</v>
+      </c>
+      <c r="CU43">
+        <v>76020</v>
+      </c>
+      <c r="CV43">
+        <v>76020</v>
+      </c>
+      <c r="CW43">
+        <v>76020</v>
+      </c>
+      <c r="CX43">
+        <v>76020</v>
+      </c>
+      <c r="CY43">
+        <v>76020</v>
+      </c>
+      <c r="CZ43">
+        <v>76020</v>
+      </c>
+      <c r="DA43">
+        <v>76020</v>
+      </c>
+      <c r="DB43">
+        <v>76020</v>
+      </c>
+      <c r="DC43">
+        <v>76020</v>
+      </c>
+      <c r="DD43">
+        <v>76020</v>
+      </c>
+      <c r="DE43">
+        <v>76020</v>
+      </c>
+      <c r="DF43">
+        <v>76020</v>
+      </c>
+      <c r="DG43">
+        <v>76020</v>
+      </c>
+      <c r="DH43">
+        <v>76020</v>
+      </c>
+      <c r="DI43">
+        <v>76020</v>
+      </c>
+      <c r="DJ43">
+        <v>76020</v>
+      </c>
+      <c r="DK43">
+        <v>76020</v>
+      </c>
+      <c r="DL43">
+        <v>76020</v>
+      </c>
+      <c r="DM43">
+        <v>76020</v>
+      </c>
+      <c r="DN43">
+        <v>76020</v>
+      </c>
+      <c r="DO43">
+        <v>76020</v>
+      </c>
+      <c r="DP43">
+        <v>76020</v>
+      </c>
+      <c r="DQ43">
+        <v>76020</v>
+      </c>
+      <c r="DR43">
+        <v>76020</v>
+      </c>
+      <c r="DS43">
+        <v>76020</v>
+      </c>
+      <c r="DT43">
+        <v>76020</v>
+      </c>
+      <c r="DU43">
+        <v>76020</v>
+      </c>
+      <c r="DV43">
+        <v>76020</v>
+      </c>
+      <c r="DW43">
+        <v>76020</v>
+      </c>
+      <c r="DX43">
+        <v>76020</v>
+      </c>
+      <c r="DY43">
+        <v>76020</v>
+      </c>
+      <c r="DZ43">
+        <v>76020</v>
+      </c>
+      <c r="EA43">
+        <v>76020</v>
+      </c>
+      <c r="EB43">
+        <v>76020</v>
+      </c>
+      <c r="EC43">
+        <v>76020</v>
+      </c>
+      <c r="ED43">
+        <v>76020</v>
+      </c>
+      <c r="EE43">
+        <v>76020</v>
+      </c>
+      <c r="EF43">
+        <v>76020</v>
+      </c>
+      <c r="EG43">
+        <v>76020</v>
+      </c>
+      <c r="EH43">
+        <v>76020</v>
+      </c>
+      <c r="EI43">
+        <v>76020</v>
+      </c>
+      <c r="EJ43">
+        <v>76020</v>
+      </c>
+      <c r="EK43">
+        <v>76020</v>
+      </c>
+      <c r="EL43">
+        <v>76020</v>
+      </c>
+      <c r="EM43">
+        <v>76020</v>
+      </c>
+      <c r="EN43">
+        <v>76020</v>
+      </c>
+      <c r="EO43">
+        <v>76020</v>
+      </c>
+      <c r="EP43">
+        <v>76020</v>
+      </c>
+      <c r="EQ43">
+        <v>76020</v>
+      </c>
+      <c r="ER43">
+        <v>76020</v>
+      </c>
+      <c r="ES43">
+        <v>76020</v>
+      </c>
+      <c r="ET43">
+        <v>76020</v>
+      </c>
+      <c r="EU43">
+        <v>76020</v>
+      </c>
+      <c r="EV43">
+        <v>76020</v>
+      </c>
+      <c r="EW43">
+        <v>76020</v>
+      </c>
+      <c r="EX43">
+        <v>76020</v>
+      </c>
+      <c r="EY43">
+        <v>76020</v>
+      </c>
+      <c r="EZ43">
+        <v>76020</v>
+      </c>
+      <c r="FA43">
+        <v>76020</v>
+      </c>
+      <c r="FB43">
+        <v>76020</v>
+      </c>
+      <c r="FC43">
+        <v>76020</v>
+      </c>
+      <c r="FD43">
+        <v>76020</v>
+      </c>
+      <c r="FE43">
+        <v>76020</v>
+      </c>
+      <c r="FF43">
+        <v>76020</v>
+      </c>
+      <c r="FG43">
+        <v>76020</v>
+      </c>
+      <c r="FH43">
+        <v>76020</v>
+      </c>
+      <c r="FI43">
+        <v>76020</v>
+      </c>
+      <c r="FJ43">
+        <v>76020</v>
+      </c>
+      <c r="FK43">
+        <v>76020</v>
+      </c>
+      <c r="FL43">
+        <v>76020</v>
+      </c>
+      <c r="FM43">
+        <v>76020</v>
+      </c>
+      <c r="FN43">
+        <v>76020</v>
+      </c>
+      <c r="FO43">
+        <v>76020</v>
+      </c>
+      <c r="FP43">
+        <v>76020</v>
+      </c>
+      <c r="FQ43">
+        <v>76020</v>
+      </c>
+      <c r="FR43">
+        <v>76020</v>
+      </c>
+      <c r="FS43">
+        <v>76020</v>
+      </c>
+      <c r="FT43">
+        <v>76020</v>
+      </c>
+      <c r="FU43">
+        <v>76020</v>
+      </c>
+      <c r="FV43">
+        <v>76020</v>
+      </c>
+      <c r="FW43">
+        <v>76020</v>
+      </c>
+      <c r="FX43">
+        <v>76020</v>
+      </c>
+      <c r="FY43">
+        <v>76020</v>
+      </c>
+      <c r="FZ43">
+        <v>76020</v>
+      </c>
+      <c r="GA43">
+        <v>76020</v>
+      </c>
+      <c r="GB43">
+        <v>76020</v>
+      </c>
+      <c r="GC43">
+        <v>76020</v>
+      </c>
+      <c r="GD43">
+        <v>76020</v>
+      </c>
+      <c r="GE43">
+        <v>76020</v>
+      </c>
+      <c r="GF43">
+        <v>76020</v>
+      </c>
+      <c r="GG43">
+        <v>76020</v>
+      </c>
+      <c r="GH43">
+        <v>76020</v>
+      </c>
+      <c r="GI43">
+        <v>76020</v>
+      </c>
+      <c r="GJ43">
+        <v>76020</v>
+      </c>
+      <c r="GK43">
+        <v>76020</v>
+      </c>
+      <c r="GL43">
+        <v>76020</v>
+      </c>
+      <c r="GM43">
+        <v>76020</v>
+      </c>
+      <c r="GN43">
+        <v>76020</v>
+      </c>
+      <c r="GO43">
+        <v>76020</v>
+      </c>
+      <c r="GP43">
+        <v>76020</v>
+      </c>
+      <c r="GQ43">
+        <v>76020</v>
+      </c>
+      <c r="GR43">
+        <v>76020</v>
+      </c>
+      <c r="GS43">
+        <v>76020</v>
+      </c>
+      <c r="GT43">
+        <v>76020</v>
+      </c>
+      <c r="GU43">
+        <v>76020</v>
+      </c>
+      <c r="GV43">
+        <v>76020</v>
+      </c>
+      <c r="GW43">
+        <v>76020</v>
+      </c>
+      <c r="GX43">
+        <v>76020</v>
+      </c>
+      <c r="GY43">
+        <v>76020</v>
+      </c>
+      <c r="GZ43">
+        <v>76020</v>
+      </c>
+      <c r="HA43">
+        <v>76020</v>
+      </c>
+      <c r="HB43">
+        <v>76020</v>
+      </c>
+      <c r="HC43">
+        <v>76020</v>
+      </c>
+      <c r="HD43">
+        <v>76020</v>
+      </c>
+      <c r="HE43">
+        <v>76020</v>
+      </c>
+      <c r="HF43">
+        <v>76020</v>
+      </c>
+      <c r="HG43">
+        <v>76020</v>
+      </c>
+      <c r="HH43">
+        <v>76020</v>
+      </c>
+      <c r="HI43">
+        <v>76020</v>
+      </c>
+      <c r="HJ43">
+        <v>76020</v>
+      </c>
+      <c r="HK43">
+        <v>76020</v>
+      </c>
+      <c r="HL43">
+        <v>76020</v>
+      </c>
+      <c r="HM43">
+        <v>76020</v>
+      </c>
+      <c r="HN43">
+        <v>76020</v>
+      </c>
+      <c r="HO43">
+        <v>76020</v>
+      </c>
+      <c r="HP43">
+        <v>76020</v>
+      </c>
+      <c r="HQ43">
+        <v>76020</v>
+      </c>
+      <c r="HR43">
+        <v>76020</v>
+      </c>
+      <c r="HS43">
+        <v>76020</v>
+      </c>
+      <c r="HT43">
+        <v>76020</v>
+      </c>
+      <c r="HU43">
+        <v>76020</v>
+      </c>
+      <c r="HV43">
+        <v>76020</v>
+      </c>
+      <c r="HW43">
+        <v>76020</v>
+      </c>
+      <c r="HX43">
+        <v>76020</v>
+      </c>
+      <c r="HY43">
+        <v>76020</v>
+      </c>
+    </row>
+    <row r="44" spans="2:233" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44">
+        <v>9.60273612207313E-3</v>
+      </c>
+      <c r="D44">
+        <v>0.585359116022099</v>
+      </c>
+      <c r="E44">
+        <v>15.8056372007366</v>
+      </c>
+      <c r="F44">
+        <v>3.1728492501973099E-2</v>
+      </c>
+      <c r="G44">
+        <v>1.1519851354906601</v>
+      </c>
+      <c r="H44">
+        <v>0.68230531439094899</v>
+      </c>
+      <c r="I44">
+        <v>4.0384109444882898E-3</v>
+      </c>
+      <c r="J44">
+        <v>8.70691923178111E-2</v>
+      </c>
+      <c r="K44">
+        <v>0.13745067087608501</v>
+      </c>
+      <c r="L44">
+        <v>1.17063851617995</v>
+      </c>
+      <c r="M44">
+        <v>3.0544593528018901E-2</v>
+      </c>
+      <c r="N44">
+        <v>1.0913037358589801</v>
+      </c>
+      <c r="O44">
+        <v>3.2284926335174902</v>
+      </c>
+      <c r="P44">
+        <v>7.5817812417784696</v>
+      </c>
+      <c r="Q44">
+        <v>3.0242667719021301</v>
+      </c>
+      <c r="R44">
+        <v>3.2286110234148899</v>
+      </c>
+      <c r="S44">
+        <v>7.58188647724283</v>
+      </c>
+      <c r="T44">
+        <v>3.0252401999473801</v>
+      </c>
+      <c r="U44">
+        <v>2.8461200999736902</v>
+      </c>
+      <c r="V44">
+        <v>3.4451460142067798E-2</v>
+      </c>
+      <c r="W44">
+        <v>1.1325966850828701E-2</v>
+      </c>
+      <c r="X44">
+        <v>0.74359379110760304</v>
+      </c>
+      <c r="Y44">
+        <v>2.8940410418310898</v>
+      </c>
+      <c r="Z44">
+        <v>1.9991712707182301</v>
+      </c>
+      <c r="AA44">
+        <v>9.8539857932123096E-2</v>
+      </c>
+      <c r="AB44">
+        <v>2.3546435148645E-3</v>
+      </c>
+      <c r="AC44">
+        <v>0.13800315706392999</v>
+      </c>
+      <c r="AD44">
+        <v>0.16771902131018099</v>
+      </c>
+      <c r="AE44">
+        <v>0.130307813733228</v>
+      </c>
+      <c r="AF44">
+        <v>0.124506708760852</v>
+      </c>
+      <c r="AG44">
+        <v>3.7332280978689798E-2</v>
+      </c>
+      <c r="AH44">
+        <v>3.5240726124703997E-2</v>
+      </c>
+      <c r="AI44">
+        <v>0.15982636148382001</v>
+      </c>
+      <c r="AJ44">
+        <v>7.2691397000789207E-2</v>
+      </c>
+      <c r="AK44">
+        <v>1.6140489344909199E-2</v>
+      </c>
+      <c r="AL44">
+        <v>1.1878453038674E-2</v>
+      </c>
+      <c r="AM44">
+        <v>8.87924230465666E-3</v>
+      </c>
+      <c r="AN44">
+        <v>0.127663772691397</v>
+      </c>
+      <c r="AO44">
+        <v>0.113772691397</v>
+      </c>
+      <c r="AP44">
+        <v>2.6032622993948901E-2</v>
+      </c>
+      <c r="AQ44">
+        <v>2.6032622993948901E-2</v>
+      </c>
+      <c r="AR44">
+        <v>4.9723756906077301E-3</v>
+      </c>
+      <c r="AS44">
+        <v>4.9723756906077301E-3</v>
+      </c>
+      <c r="AT44">
+        <v>1.29834254143646E-2</v>
+      </c>
+      <c r="AU44">
+        <v>1.0260457774269899E-3</v>
+      </c>
+      <c r="AV44">
+        <v>2.3322809786898099E-2</v>
+      </c>
+      <c r="AW44">
+        <v>3.5240726124703997E-2</v>
+      </c>
+      <c r="AX44">
+        <v>6.4312023151802095E-2</v>
+      </c>
+      <c r="AY44">
+        <v>2.34806629834254E-2</v>
+      </c>
+      <c r="AZ44">
+        <v>0.119350171007629</v>
+      </c>
+      <c r="BA44">
+        <v>0.13897658510918101</v>
+      </c>
+      <c r="BB44">
+        <v>6.4851354906603501E-2</v>
+      </c>
+      <c r="BC44">
+        <v>2.41515390686661E-2</v>
+      </c>
+      <c r="BD44">
+        <v>0.12632202052091501</v>
+      </c>
+      <c r="BE44">
+        <v>0.14496185214417201</v>
+      </c>
+      <c r="BF44">
+        <v>0.99548802946592996</v>
+      </c>
+      <c r="BG44">
+        <v>0.739081820573533</v>
+      </c>
+      <c r="BH44">
+        <v>2.0126282557221702E-2</v>
+      </c>
+      <c r="BI44">
+        <v>1.6061562746645601E-2</v>
+      </c>
+      <c r="BJ44">
+        <v>4.2225730071033902E-3</v>
+      </c>
+      <c r="BK44">
+        <v>4.2225730071033902E-3</v>
+      </c>
+      <c r="BL44">
+        <v>2.5651144435674799E-3</v>
+      </c>
+      <c r="BM44">
+        <v>2.0915548539857899E-3</v>
+      </c>
+      <c r="BN44">
+        <v>0.74875032886082604</v>
+      </c>
+      <c r="BO44">
+        <v>4.0620889239673698E-2</v>
+      </c>
+      <c r="BP44">
+        <v>3.0465666929755299E-2</v>
+      </c>
+      <c r="BQ44">
+        <v>3.0465666929755299E-2</v>
+      </c>
+      <c r="BR44">
+        <v>0.88203104446198299</v>
+      </c>
+      <c r="BS44">
+        <v>3.4293606945540601E-2</v>
+      </c>
+      <c r="BT44">
+        <v>2.0284135753748999E-2</v>
+      </c>
+      <c r="BU44">
+        <v>0.99426466719284401</v>
+      </c>
+      <c r="BV44">
+        <v>0.71265456458826604</v>
+      </c>
+      <c r="BW44">
+        <v>5.6827150749802604E-3</v>
+      </c>
+      <c r="BX44">
+        <v>45.322535122336198</v>
+      </c>
+      <c r="BY44">
+        <v>180.75545172323001</v>
+      </c>
+      <c r="BZ44">
+        <v>0.41447513812154602</v>
+      </c>
+      <c r="CA44">
+        <v>30.592269534332999</v>
+      </c>
+      <c r="CB44">
+        <v>109.332171665351</v>
+      </c>
+      <c r="CC44">
+        <v>3.91739016048408E-2</v>
+      </c>
+      <c r="CD44">
+        <v>620.66012141541603</v>
+      </c>
+      <c r="CE44">
+        <v>0.51302288871349599</v>
+      </c>
+      <c r="CF44">
+        <v>221.544562878189</v>
+      </c>
+      <c r="CG44">
+        <v>53.852966456195702</v>
+      </c>
+      <c r="CH44">
+        <v>183.40589660615601</v>
+      </c>
+      <c r="CI44">
+        <v>43.409629044988101</v>
+      </c>
+      <c r="CJ44">
+        <v>18.092628255722101</v>
+      </c>
+      <c r="CK44">
+        <v>109.325370823467</v>
+      </c>
+      <c r="CL44">
+        <v>10.6627983425414</v>
+      </c>
+      <c r="CM44">
+        <v>10.404701262825499</v>
+      </c>
+      <c r="CN44">
+        <v>0.41447513812154602</v>
+      </c>
+      <c r="CO44">
+        <v>147.41529821099701</v>
+      </c>
+      <c r="CP44">
+        <v>153.27810602472999</v>
+      </c>
+      <c r="CQ44">
+        <v>1.8630382794001501</v>
+      </c>
+      <c r="CR44">
+        <v>12.532332675611601</v>
+      </c>
+      <c r="CS44">
+        <v>0.67087608524072595</v>
+      </c>
+      <c r="CT44">
+        <v>6.1595019731649501</v>
+      </c>
+      <c r="CU44">
+        <v>1.2049137069192299</v>
+      </c>
+      <c r="CV44">
+        <v>109.88495790581401</v>
+      </c>
+      <c r="CW44">
+        <v>79.640667719021295</v>
+      </c>
+      <c r="CX44">
+        <v>0.68720073664824999</v>
+      </c>
+      <c r="CY44">
+        <v>-2.18229962641962E-2</v>
+      </c>
+      <c r="CZ44">
+        <v>-1.9158921495922101E-4</v>
+      </c>
+      <c r="DA44">
+        <v>-2.8509790656406199E-4</v>
+      </c>
+      <c r="DB44">
+        <v>-1.1750567207182301E-4</v>
+      </c>
+      <c r="DC44" s="12">
+        <v>-1.31544330439358E-5</v>
+      </c>
+      <c r="DD44" s="12">
+        <v>-2.63088660878716E-5</v>
+      </c>
+      <c r="DE44" s="12">
+        <v>-7.8926598263614805E-5</v>
+      </c>
+      <c r="DF44" s="12">
+        <v>5.14512651749539E-5</v>
+      </c>
+      <c r="DG44">
+        <v>-2.20051740769928E-2</v>
+      </c>
+      <c r="DH44">
+        <v>-1.8854687362536101E-4</v>
+      </c>
+      <c r="DI44">
+        <v>-2.30202578268876E-4</v>
+      </c>
+      <c r="DJ44" s="12">
+        <v>-6.5772165219678996E-5</v>
+      </c>
+      <c r="DK44" s="12">
+        <v>-1.31544330439358E-5</v>
+      </c>
+      <c r="DL44" s="12">
+        <v>-2.63088660878716E-5</v>
+      </c>
+      <c r="DM44" s="12">
+        <v>-7.8926598263614805E-5</v>
+      </c>
+      <c r="DN44" s="12">
+        <v>8.5503814785582697E-5</v>
+      </c>
+      <c r="DO44">
+        <v>0.23118942383583199</v>
+      </c>
+      <c r="DP44">
+        <v>1.80513022888713E-2</v>
+      </c>
+      <c r="DQ44">
+        <v>1008.98598579321</v>
+      </c>
+      <c r="DR44">
+        <v>2.7624309392265101E-3</v>
+      </c>
+      <c r="DS44">
+        <v>98.788769139699994</v>
+      </c>
+      <c r="DT44">
+        <v>31.105322809786799</v>
+      </c>
+      <c r="DU44">
+        <v>2.9857932123125401</v>
+      </c>
+      <c r="DV44">
+        <v>4.8145224940804997E-2</v>
+      </c>
+      <c r="DW44">
+        <v>2.7214538279400098</v>
+      </c>
+      <c r="DX44">
+        <v>21.7934622467771</v>
+      </c>
+      <c r="DY44">
+        <v>13.964580505130201</v>
+      </c>
+      <c r="DZ44">
+        <v>116.782528018942</v>
+      </c>
+      <c r="EA44">
+        <v>46.180243093922599</v>
+      </c>
+      <c r="EB44">
+        <v>12.569400552486099</v>
+      </c>
+      <c r="EC44">
+        <v>27.1130768218889</v>
+      </c>
+      <c r="ED44">
+        <v>30.5012759800052</v>
+      </c>
+      <c r="EE44">
+        <v>1.8748082083662101</v>
+      </c>
+      <c r="EF44">
+        <v>2.51267837411207</v>
+      </c>
+      <c r="EG44">
+        <v>1.91361602209944</v>
+      </c>
+      <c r="EH44">
+        <v>2.7897722967640002</v>
+      </c>
+      <c r="EI44">
+        <v>0.31470126282557198</v>
+      </c>
+      <c r="EJ44">
+        <v>3.78713693764798</v>
+      </c>
+      <c r="EK44">
+        <v>81.433827940015703</v>
+      </c>
+      <c r="EL44">
+        <v>1.0090765588003101</v>
+      </c>
+      <c r="EM44">
+        <v>7.58879242304656E-2</v>
+      </c>
+      <c r="EN44">
+        <v>1.7955801104972299E-2</v>
+      </c>
+      <c r="EO44">
+        <v>1.53906866614048E-3</v>
+      </c>
+      <c r="EP44">
+        <v>3.3938437253354299E-3</v>
+      </c>
+      <c r="EQ44">
+        <v>1.0655090765588E-3</v>
+      </c>
+      <c r="ER44">
+        <v>3.1570639305445901E-4</v>
+      </c>
+      <c r="ES44">
+        <v>1.02999210734017E-2</v>
+      </c>
+      <c r="ET44">
+        <v>1.8547750591949401E-3</v>
+      </c>
+      <c r="EU44">
+        <v>7.53749013417521E-3</v>
+      </c>
+      <c r="EV44">
+        <v>5.50249934227834E-2</v>
+      </c>
+      <c r="EW44">
+        <v>0.20939226519337001</v>
+      </c>
+      <c r="EX44">
+        <v>3.2215206524598701E-2</v>
+      </c>
+      <c r="EY44">
+        <v>0.109800052617732</v>
+      </c>
+      <c r="EZ44">
+        <v>0.16633780584056801</v>
+      </c>
+      <c r="FA44">
+        <v>0.15330176269402701</v>
+      </c>
+      <c r="FB44">
+        <v>0.35373585898447701</v>
+      </c>
+      <c r="FC44">
+        <v>0.72972901867929496</v>
+      </c>
+      <c r="FD44">
+        <v>2.9137069192317799E-2</v>
+      </c>
+      <c r="FE44">
+        <v>4.58168902920284E-2</v>
+      </c>
+      <c r="FF44">
+        <v>4.2883451723230701E-2</v>
+      </c>
+      <c r="FG44">
+        <v>1.7403314917126999E-2</v>
+      </c>
+      <c r="FH44">
+        <v>2.9597474348855499E-3</v>
+      </c>
+      <c r="FI44">
+        <v>1.0523546435148601E-4</v>
+      </c>
+      <c r="FJ44">
+        <v>1.5127598000526099E-3</v>
+      </c>
+      <c r="FK44">
+        <v>0.86629834254143601</v>
+      </c>
+      <c r="FL44">
+        <v>1.88108392528282E-3</v>
+      </c>
+      <c r="FM44">
+        <v>0.118113654301499</v>
+      </c>
+      <c r="FN44">
+        <v>0.140226256248355</v>
+      </c>
+      <c r="FO44">
+        <v>1.3378058405682699E-2</v>
+      </c>
+      <c r="FP44">
+        <v>4.1397000789265899E-2</v>
+      </c>
+      <c r="FQ44">
+        <v>2.4861878453038598E-3</v>
+      </c>
+      <c r="FR44">
+        <v>1.68376742962378E-3</v>
+      </c>
+      <c r="FS44">
+        <v>0.10094711917916301</v>
+      </c>
+      <c r="FT44">
+        <v>0.11754801368061001</v>
+      </c>
+      <c r="FU44">
+        <v>0.10326229939489601</v>
+      </c>
+      <c r="FV44">
+        <v>0.156603525388055</v>
+      </c>
+      <c r="FW44">
+        <v>0.10364377795316999</v>
+      </c>
+      <c r="FX44">
+        <v>0.157971586424625</v>
+      </c>
+      <c r="FY44">
+        <v>1.1838989739542201E-3</v>
+      </c>
+      <c r="FZ44">
+        <v>4.9329123914759196E-3</v>
+      </c>
+      <c r="GA44">
+        <v>6.89423835832675E-2</v>
+      </c>
+      <c r="GB44">
+        <v>0.14041041831097001</v>
+      </c>
+      <c r="GC44">
+        <v>3.88055774796106E-3</v>
+      </c>
+      <c r="GD44">
+        <v>1.18389897395422E-4</v>
+      </c>
+      <c r="GE44">
+        <v>2.3677979479084401E-4</v>
+      </c>
+      <c r="GF44">
+        <v>1.5785319652722899E-4</v>
+      </c>
+      <c r="GG44">
+        <v>4.4198895027624304E-3</v>
+      </c>
+      <c r="GH44">
+        <v>0.43522757169165999</v>
+      </c>
+      <c r="GI44">
+        <v>0.117298079452775</v>
+      </c>
+      <c r="GJ44">
+        <v>0.22683504340962901</v>
+      </c>
+      <c r="GK44">
+        <v>0.42203367534859199</v>
+      </c>
+      <c r="GL44">
+        <v>115.761482767692</v>
+      </c>
+      <c r="GM44">
+        <v>112.92578400420901</v>
+      </c>
+      <c r="GN44">
+        <v>174.98181623257</v>
+      </c>
+      <c r="GO44">
+        <v>222.06209865824701</v>
+      </c>
+      <c r="GP44">
+        <v>24.831172323072799</v>
+      </c>
+      <c r="GQ44">
+        <v>8.5976039200210401</v>
+      </c>
+      <c r="GR44">
+        <v>29.066948829255399</v>
+      </c>
+      <c r="GS44">
+        <v>22.961316890292</v>
+      </c>
+      <c r="GT44">
+        <v>167.24111154959201</v>
+      </c>
+      <c r="GU44">
+        <v>200.69069060773401</v>
+      </c>
+      <c r="GV44">
+        <v>109.069495790581</v>
+      </c>
+      <c r="GW44">
+        <v>83.974790186792902</v>
+      </c>
+      <c r="GX44">
+        <v>973.92604880294596</v>
+      </c>
+      <c r="GY44">
+        <v>99.8363735858984</v>
+      </c>
+      <c r="GZ44">
+        <v>4.0765588003157001E-2</v>
+      </c>
+      <c r="HA44">
+        <v>708.97725743225396</v>
+      </c>
+      <c r="HB44">
+        <v>263.07766245724798</v>
+      </c>
+      <c r="HC44">
+        <v>94.149229939489601</v>
+      </c>
+      <c r="HD44">
+        <v>372.23682754538203</v>
+      </c>
+      <c r="HE44">
+        <v>297.49000776111501</v>
+      </c>
+      <c r="HF44">
+        <v>0.17532438831886299</v>
+      </c>
+      <c r="HG44">
+        <v>0.51302288871349599</v>
+      </c>
+      <c r="HH44">
+        <v>0.344174033149171</v>
+      </c>
+      <c r="HI44">
+        <v>91.171810576164106</v>
+      </c>
+      <c r="HJ44">
+        <v>36.463183504340897</v>
+      </c>
+      <c r="HK44">
+        <v>131.03156590370901</v>
+      </c>
+      <c r="HL44">
+        <v>109.21694356748201</v>
+      </c>
+      <c r="HM44">
+        <v>0.21307103393843699</v>
+      </c>
+      <c r="HN44">
+        <v>0.25390686661404799</v>
+      </c>
+      <c r="HO44">
+        <v>0.18662983425414301</v>
+      </c>
+      <c r="HP44">
+        <v>7.9358239936858697</v>
+      </c>
+      <c r="HQ44">
+        <v>1.3651460142067799</v>
+      </c>
+      <c r="HR44">
+        <v>12.2155797158642</v>
+      </c>
+      <c r="HS44">
+        <v>8.7840741910023592</v>
+      </c>
+      <c r="HT44">
+        <v>31.505324388318801</v>
+      </c>
+      <c r="HU44">
+        <v>1.85857498026835</v>
+      </c>
+      <c r="HV44">
+        <v>50.0907541436464</v>
+      </c>
+      <c r="HW44">
+        <v>44.156333201788897</v>
+      </c>
+      <c r="HX44">
+        <v>2371.5525799789498</v>
+      </c>
+      <c r="HY44">
+        <v>3.9568534596158902E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:233" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45">
+        <v>0.86689639492665804</v>
+      </c>
+      <c r="D45">
+        <v>0.81742864724711695</v>
+      </c>
+      <c r="E45">
+        <v>1371.9628700426599</v>
+      </c>
+      <c r="F45">
+        <v>0.17527749256148101</v>
+      </c>
+      <c r="G45">
+        <v>131.206207109058</v>
+      </c>
+      <c r="H45">
+        <v>64.302426879156499</v>
+      </c>
+      <c r="I45">
+        <v>6.3420462712767703E-2</v>
+      </c>
+      <c r="J45">
+        <v>23.937571093787099</v>
+      </c>
+      <c r="K45">
+        <v>27.6396425187788</v>
+      </c>
+      <c r="L45">
+        <v>82.067547569195895</v>
+      </c>
+      <c r="M45">
+        <v>0.17208140766346899</v>
+      </c>
+      <c r="N45">
+        <v>122.51819745357901</v>
+      </c>
+      <c r="O45">
+        <v>340.96644512642303</v>
+      </c>
+      <c r="P45">
+        <v>741.42322030295497</v>
+      </c>
+      <c r="Q45">
+        <v>340.521370655233</v>
+      </c>
+      <c r="R45">
+        <v>340.966444179007</v>
+      </c>
+      <c r="S45">
+        <v>741.42321929776699</v>
+      </c>
+      <c r="T45">
+        <v>340.52136343777698</v>
+      </c>
+      <c r="U45">
+        <v>452.09511502959703</v>
+      </c>
+      <c r="V45">
+        <v>0.320378506008554</v>
+      </c>
+      <c r="W45">
+        <v>0.184626247363079</v>
+      </c>
+      <c r="X45">
+        <v>0.44043107718652802</v>
+      </c>
+      <c r="Y45">
+        <v>0.656478967714198</v>
+      </c>
+      <c r="Z45">
+        <v>1.4319015296755799</v>
+      </c>
+      <c r="AA45">
+        <v>0.53492991515812405</v>
+      </c>
+      <c r="AB45">
+        <v>4.84678251034295E-2</v>
+      </c>
+      <c r="AC45">
+        <v>0.63725865406763105</v>
+      </c>
+      <c r="AD45">
+        <v>0.74582181557682703</v>
+      </c>
+      <c r="AE45">
+        <v>0.61882629591761495</v>
+      </c>
+      <c r="AF45">
+        <v>0.59874575669781305</v>
+      </c>
+      <c r="AG45">
+        <v>0.40482187850872597</v>
+      </c>
+      <c r="AH45">
+        <v>0.38137263580754499</v>
+      </c>
+      <c r="AI45">
+        <v>0.71302220102225899</v>
+      </c>
+      <c r="AJ45">
+        <v>0.61081501351127998</v>
+      </c>
+      <c r="AK45">
+        <v>0.22426018898283501</v>
+      </c>
+      <c r="AL45">
+        <v>0.36248007772075702</v>
+      </c>
+      <c r="AM45">
+        <v>0.28876830440741502</v>
+      </c>
+      <c r="AN45">
+        <v>0.60848159098289001</v>
+      </c>
+      <c r="AO45">
+        <v>0.57366237216722005</v>
+      </c>
+      <c r="AP45">
+        <v>0.243989601577044</v>
+      </c>
+      <c r="AQ45">
+        <v>0.243989601577044</v>
+      </c>
+      <c r="AR45">
+        <v>0.19779631661045799</v>
+      </c>
+      <c r="AS45">
+        <v>0.19779631661045799</v>
+      </c>
+      <c r="AT45">
+        <v>0.85727706787295799</v>
+      </c>
+      <c r="AU45">
+        <v>0.180762243657658</v>
+      </c>
+      <c r="AV45">
+        <v>1.60703461796321</v>
+      </c>
+      <c r="AW45">
+        <v>2.33158321174328</v>
+      </c>
+      <c r="AX45">
+        <v>1.8866461096817999</v>
+      </c>
+      <c r="AY45">
+        <v>0.87102987930359599</v>
+      </c>
+      <c r="AZ45">
+        <v>3.26844797308001</v>
+      </c>
+      <c r="BA45">
+        <v>3.8738964098855302</v>
+      </c>
+      <c r="BB45">
+        <v>1.8899889087563699</v>
+      </c>
+      <c r="BC45">
+        <v>0.88826165691921399</v>
+      </c>
+      <c r="BD45">
+        <v>3.4636039853896801</v>
+      </c>
+      <c r="BE45">
+        <v>4.0894420755675203</v>
+      </c>
+      <c r="BF45">
+        <v>6.7019935402571298E-2</v>
+      </c>
+      <c r="BG45">
+        <v>0.53314221637828696</v>
+      </c>
+      <c r="BH45">
+        <v>0.40662386070786399</v>
+      </c>
+      <c r="BI45">
+        <v>0.33160890699360601</v>
+      </c>
+      <c r="BJ45">
+        <v>0.13970239682751601</v>
+      </c>
+      <c r="BK45">
+        <v>0.13970239682751601</v>
+      </c>
+      <c r="BL45">
+        <v>0.10145677240156301</v>
+      </c>
+      <c r="BM45">
+        <v>8.6338212809412895E-2</v>
+      </c>
+      <c r="BN45">
+        <v>0.59014398502559395</v>
+      </c>
+      <c r="BO45">
+        <v>0.97643583602311601</v>
+      </c>
+      <c r="BP45">
+        <v>0.97191816339743498</v>
+      </c>
+      <c r="BQ45">
+        <v>0.97191816339743498</v>
+      </c>
+      <c r="BR45">
+        <v>0.36471919668963299</v>
+      </c>
+      <c r="BS45">
+        <v>0.31928496700439901</v>
+      </c>
+      <c r="BT45">
+        <v>0.22099636559851399</v>
+      </c>
+      <c r="BU45">
+        <v>7.55149904196699E-2</v>
+      </c>
+      <c r="BV45">
+        <v>0.46559395473307802</v>
+      </c>
+      <c r="BW45">
+        <v>0.131350137878431</v>
+      </c>
+      <c r="BX45">
+        <v>10937.244050151299</v>
+      </c>
+      <c r="BY45">
+        <v>7676.6532066049303</v>
+      </c>
+      <c r="BZ45">
+        <v>83.096796986520104</v>
+      </c>
+      <c r="CA45">
+        <v>2149.5944981183302</v>
+      </c>
+      <c r="CB45">
+        <v>17454.982779149701</v>
+      </c>
+      <c r="CC45">
+        <v>0.19400979915497099</v>
+      </c>
+      <c r="CD45">
+        <v>16619.451953108899</v>
+      </c>
+      <c r="CE45">
+        <v>113.59755883712</v>
+      </c>
+      <c r="CF45">
+        <v>12601.097285473599</v>
+      </c>
+      <c r="CG45">
+        <v>2810.678084485</v>
+      </c>
+      <c r="CH45">
+        <v>22698.1299550597</v>
+      </c>
+      <c r="CI45">
+        <v>10934.966158835699</v>
+      </c>
+      <c r="CJ45">
+        <v>2453.5926820119698</v>
+      </c>
+      <c r="CK45">
+        <v>17454.982821552301</v>
+      </c>
+      <c r="CL45">
+        <v>517.58230334580298</v>
+      </c>
+      <c r="CM45">
+        <v>512.49198794977497</v>
+      </c>
+      <c r="CN45">
+        <v>83.096796986520104</v>
+      </c>
+      <c r="CO45">
+        <v>20464.987209657502</v>
+      </c>
+      <c r="CP45">
+        <v>23002.637526236798</v>
+      </c>
+      <c r="CQ45">
+        <v>111.20761544670501</v>
+      </c>
+      <c r="CR45">
+        <v>797.83955670598095</v>
+      </c>
+      <c r="CS45">
+        <v>141.44859764285599</v>
+      </c>
+      <c r="CT45">
+        <v>420.60213011712199</v>
+      </c>
+      <c r="CU45">
+        <v>87.177345219903799</v>
+      </c>
+      <c r="CV45">
+        <v>17455.125689383902</v>
+      </c>
+      <c r="CW45">
+        <v>5180.2387098831396</v>
+      </c>
+      <c r="CX45">
+        <v>0.46363640048893301</v>
+      </c>
+      <c r="CY45">
+        <v>0.15043006635509901</v>
+      </c>
+      <c r="CZ45">
+        <v>1.6730912889032099E-2</v>
+      </c>
+      <c r="DA45">
+        <v>1.65430527483745E-2</v>
+      </c>
+      <c r="DB45">
+        <v>3.3747841327284298E-2</v>
+      </c>
+      <c r="DC45">
+        <v>3.62690405772413E-3</v>
+      </c>
+      <c r="DD45">
+        <v>5.1291831713345601E-3</v>
+      </c>
+      <c r="DE45">
+        <v>8.8837721167342905E-3</v>
+      </c>
+      <c r="DF45">
+        <v>2.0063357768556299E-2</v>
+      </c>
+      <c r="DG45">
+        <v>0.14694878437605999</v>
+      </c>
+      <c r="DH45">
+        <v>1.7053662550352702E-2</v>
+      </c>
+      <c r="DI45">
+        <v>1.5062003885527199E-2</v>
+      </c>
+      <c r="DJ45">
+        <v>2.8106989353837399E-2</v>
+      </c>
+      <c r="DK45">
+        <v>3.62690405772413E-3</v>
+      </c>
+      <c r="DL45">
+        <v>5.1291831713345601E-3</v>
+      </c>
+      <c r="DM45">
+        <v>8.8837721167342905E-3</v>
+      </c>
+      <c r="DN45">
+        <v>2.9297282059410599E-2</v>
+      </c>
+      <c r="DO45">
+        <v>57.320958495525502</v>
+      </c>
+      <c r="DP45">
+        <v>4.0994612945912099</v>
+      </c>
+      <c r="DQ45">
+        <v>19747.989552875501</v>
+      </c>
+      <c r="DR45">
+        <v>5.2486533061731497E-2</v>
+      </c>
+      <c r="DS45">
+        <v>22120.719163713398</v>
+      </c>
+      <c r="DT45">
+        <v>2457.0912823059198</v>
+      </c>
+      <c r="DU45">
+        <v>226.862983666204</v>
+      </c>
+      <c r="DV45">
+        <v>6.0226924002230096</v>
+      </c>
+      <c r="DW45">
+        <v>554.24943652286095</v>
+      </c>
+      <c r="DX45">
+        <v>4384.2463057826399</v>
+      </c>
+      <c r="DY45">
+        <v>1151.5108617094299</v>
+      </c>
+      <c r="DZ45">
+        <v>13620.4421717472</v>
+      </c>
+      <c r="EA45">
+        <v>2859.73659099104</v>
+      </c>
+      <c r="EB45">
+        <v>1093.1338827285699</v>
+      </c>
+      <c r="EC45">
+        <v>5313.2721255281103</v>
+      </c>
+      <c r="ED45">
+        <v>8378.1588448335096</v>
+      </c>
+      <c r="EE45">
+        <v>388.24502179649198</v>
+      </c>
+      <c r="EF45">
+        <v>508.96883064357797</v>
+      </c>
+      <c r="EG45">
+        <v>357.40532967611301</v>
+      </c>
+      <c r="EH45">
+        <v>323.81426103120401</v>
+      </c>
+      <c r="EI45">
+        <v>53.408084599348001</v>
+      </c>
+      <c r="EJ45">
+        <v>811.97608646599895</v>
+      </c>
+      <c r="EK45">
+        <v>11282.4133860111</v>
+      </c>
+      <c r="EL45">
+        <v>147.69092746189401</v>
+      </c>
+      <c r="EM45">
+        <v>0.55249913925195904</v>
+      </c>
+      <c r="EN45">
+        <v>0.28875654708835202</v>
+      </c>
+      <c r="EO45">
+        <v>0.104919190474834</v>
+      </c>
+      <c r="EP45">
+        <v>0.17405945562890199</v>
+      </c>
+      <c r="EQ45">
+        <v>6.9662861848739599E-2</v>
+      </c>
+      <c r="ER45">
+        <v>3.44066109322195E-2</v>
+      </c>
+      <c r="ES45">
+        <v>0.22878226481199199</v>
+      </c>
+      <c r="ET45">
+        <v>9.9111303643731996E-2</v>
+      </c>
+      <c r="EU45">
+        <v>0.31545268893275802</v>
+      </c>
+      <c r="EV45">
+        <v>0.48471866991018903</v>
+      </c>
+      <c r="EW45">
+        <v>0.84625558461094896</v>
+      </c>
+      <c r="EX45">
+        <v>0.53275243931313099</v>
+      </c>
+      <c r="EY45">
+        <v>0.57729139452991096</v>
+      </c>
+      <c r="EZ45">
+        <v>1.5638565317633599</v>
+      </c>
+      <c r="FA45">
+        <v>0.59969935571409105</v>
+      </c>
+      <c r="FB45">
+        <v>2.67175051587631</v>
+      </c>
+      <c r="FC45">
+        <v>0.444102659740157</v>
+      </c>
+      <c r="FD45">
+        <v>0.168191773015262</v>
+      </c>
+      <c r="FE45">
+        <v>0.20908916266788299</v>
+      </c>
+      <c r="FF45">
+        <v>0.20259565941858701</v>
+      </c>
+      <c r="FG45">
+        <v>0.21309476012370299</v>
+      </c>
+      <c r="FH45">
+        <v>7.7647948930079203E-2</v>
+      </c>
+      <c r="FI45">
+        <v>1.3570313575811401E-2</v>
+      </c>
+      <c r="FJ45">
+        <v>6.2487034935449201E-2</v>
+      </c>
+      <c r="FK45">
+        <v>0.340333730168701</v>
+      </c>
+      <c r="FL45">
+        <v>4.3330937526433001E-2</v>
+      </c>
+      <c r="FM45">
+        <v>3.60667747520636</v>
+      </c>
+      <c r="FN45">
+        <v>5.0878613899465197</v>
+      </c>
+      <c r="FO45">
+        <v>1.3351400731429099</v>
+      </c>
+      <c r="FP45">
+        <v>3.5467882231883401</v>
+      </c>
+      <c r="FQ45">
+        <v>0.14717151562449399</v>
+      </c>
+      <c r="FR45">
+        <v>0.160480165768255</v>
+      </c>
+      <c r="FS45">
+        <v>3.1935781613456999</v>
+      </c>
+      <c r="FT45">
+        <v>4.0925949714269603</v>
+      </c>
+      <c r="FU45">
+        <v>1.03232710202728</v>
+      </c>
+      <c r="FV45">
+        <v>2.0277304947248802</v>
+      </c>
+      <c r="FW45">
+        <v>1.0494200547954899</v>
+      </c>
+      <c r="FX45">
+        <v>2.055178529195</v>
+      </c>
+      <c r="FY45">
+        <v>9.8522574345925804E-2</v>
+      </c>
+      <c r="FZ45">
+        <v>0.15494880242557399</v>
+      </c>
+      <c r="GA45">
+        <v>0.69859257352446003</v>
+      </c>
+      <c r="GB45">
+        <v>1.46959636706455</v>
+      </c>
+      <c r="GC45">
+        <v>6.2173546373379102E-2</v>
+      </c>
+      <c r="GD45">
+        <v>2.4329884041796201E-2</v>
+      </c>
+      <c r="GE45">
+        <v>3.0774592974308599E-2</v>
+      </c>
+      <c r="GF45">
+        <v>2.6651900694845101E-2</v>
+      </c>
+      <c r="GG45">
+        <v>0.26425635779079298</v>
+      </c>
+      <c r="GH45">
+        <v>4.5581120705658504</v>
+      </c>
+      <c r="GI45">
+        <v>1.75075478204811</v>
+      </c>
+      <c r="GJ45">
+        <v>6.6472361958300299</v>
+      </c>
+      <c r="GK45">
+        <v>8.2220359064586894</v>
+      </c>
+      <c r="GL45">
+        <v>7343.7060207791701</v>
+      </c>
+      <c r="GM45">
+        <v>7914.6888336109896</v>
+      </c>
+      <c r="GN45">
+        <v>7376.0410566017399</v>
+      </c>
+      <c r="GO45">
+        <v>6852.05730370115</v>
+      </c>
+      <c r="GP45">
+        <v>1608.2981380204001</v>
+      </c>
+      <c r="GQ45">
+        <v>518.94766490777795</v>
+      </c>
+      <c r="GR45">
+        <v>1874.94643190959</v>
+      </c>
+      <c r="GS45">
+        <v>1578.4964313452299</v>
+      </c>
+      <c r="GT45">
+        <v>19529.1223603582</v>
+      </c>
+      <c r="GU45">
+        <v>7604.6209612589901</v>
+      </c>
+      <c r="GV45">
+        <v>17414.7201123499</v>
+      </c>
+      <c r="GW45">
+        <v>13395.620937437099</v>
+      </c>
+      <c r="GX45">
+        <v>18775.6084528963</v>
+      </c>
+      <c r="GY45">
+        <v>4692.7837255331096</v>
+      </c>
+      <c r="GZ45">
+        <v>0.19774799425633899</v>
+      </c>
+      <c r="HA45">
+        <v>15487.636303024001</v>
+      </c>
+      <c r="HB45">
+        <v>10233.9995897521</v>
+      </c>
+      <c r="HC45">
+        <v>4430.1110609308498</v>
+      </c>
+      <c r="HD45">
+        <v>13348.112738755501</v>
+      </c>
+      <c r="HE45">
+        <v>10352.119517499799</v>
+      </c>
+      <c r="HF45">
+        <v>34.625518352798203</v>
+      </c>
+      <c r="HG45">
+        <v>113.59755883712</v>
+      </c>
+      <c r="HH45">
+        <v>73.376512785202905</v>
+      </c>
+      <c r="HI45">
+        <v>15392.4757116165</v>
+      </c>
+      <c r="HJ45">
+        <v>8612.3952123299805</v>
+      </c>
+      <c r="HK45">
+        <v>14956.5262256307</v>
+      </c>
+      <c r="HL45">
+        <v>13082.1574582589</v>
+      </c>
+      <c r="HM45">
+        <v>41.8204444521499</v>
+      </c>
+      <c r="HN45">
+        <v>52.078775380364497</v>
+      </c>
+      <c r="HO45">
+        <v>31.879418036269101</v>
+      </c>
+      <c r="HP45">
+        <v>455.88721798807802</v>
+      </c>
+      <c r="HQ45">
+        <v>113.959637254642</v>
+      </c>
+      <c r="HR45">
+        <v>783.20739889692004</v>
+      </c>
+      <c r="HS45">
+        <v>538.43921054499697</v>
+      </c>
+      <c r="HT45">
+        <v>2013.12539263805</v>
+      </c>
+      <c r="HU45">
+        <v>147.78658417851801</v>
+      </c>
+      <c r="HV45">
+        <v>3929.1704312073798</v>
+      </c>
+      <c r="HW45">
+        <v>2816.6189299507901</v>
+      </c>
+      <c r="HX45">
+        <v>156466.30061253899</v>
+      </c>
+      <c r="HY45">
+        <v>0.19494451923252201</v>
+      </c>
+    </row>
+    <row r="46" spans="2:233" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>0</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
+      <c r="BQ46">
+        <v>0</v>
+      </c>
+      <c r="BR46">
+        <v>0</v>
+      </c>
+      <c r="BS46">
+        <v>0</v>
+      </c>
+      <c r="BT46">
+        <v>0</v>
+      </c>
+      <c r="BU46">
+        <v>0</v>
+      </c>
+      <c r="BV46">
+        <v>0</v>
+      </c>
+      <c r="BW46">
+        <v>0</v>
+      </c>
+      <c r="BX46">
+        <v>-0.9</v>
+      </c>
+      <c r="BY46">
+        <v>0</v>
+      </c>
+      <c r="BZ46">
+        <v>0</v>
+      </c>
+      <c r="CA46">
+        <v>-4942.26</v>
+      </c>
+      <c r="CB46">
+        <v>0</v>
+      </c>
+      <c r="CC46">
+        <v>0</v>
+      </c>
+      <c r="CD46">
+        <v>0</v>
+      </c>
+      <c r="CE46">
+        <v>0</v>
+      </c>
+      <c r="CF46">
+        <v>0</v>
+      </c>
+      <c r="CG46">
+        <v>0</v>
+      </c>
+      <c r="CH46">
+        <v>0</v>
+      </c>
+      <c r="CI46">
+        <v>0</v>
+      </c>
+      <c r="CJ46">
+        <v>0</v>
+      </c>
+      <c r="CK46">
+        <v>0</v>
+      </c>
+      <c r="CL46">
+        <v>0</v>
+      </c>
+      <c r="CM46">
+        <v>0</v>
+      </c>
+      <c r="CN46">
+        <v>0</v>
+      </c>
+      <c r="CO46">
+        <v>-4942.26</v>
+      </c>
+      <c r="CP46">
+        <v>0</v>
+      </c>
+      <c r="CQ46">
+        <v>0</v>
+      </c>
+      <c r="CR46">
+        <v>0</v>
+      </c>
+      <c r="CS46">
+        <v>0</v>
+      </c>
+      <c r="CT46">
+        <v>0</v>
+      </c>
+      <c r="CU46">
+        <v>-0.9</v>
+      </c>
+      <c r="CV46">
+        <v>-4942.26</v>
+      </c>
+      <c r="CW46">
+        <v>0</v>
+      </c>
+      <c r="CX46">
+        <v>0</v>
+      </c>
+      <c r="CY46">
+        <v>-1</v>
+      </c>
+      <c r="CZ46">
+        <v>-1</v>
+      </c>
+      <c r="DA46">
+        <v>-1</v>
+      </c>
+      <c r="DB46">
+        <v>-1</v>
+      </c>
+      <c r="DC46">
+        <v>-1</v>
+      </c>
+      <c r="DD46">
+        <v>-1</v>
+      </c>
+      <c r="DE46">
+        <v>-1</v>
+      </c>
+      <c r="DF46">
+        <v>-1</v>
+      </c>
+      <c r="DG46">
+        <v>-1</v>
+      </c>
+      <c r="DH46">
+        <v>-1</v>
+      </c>
+      <c r="DI46">
+        <v>-1</v>
+      </c>
+      <c r="DJ46">
+        <v>-1</v>
+      </c>
+      <c r="DK46">
+        <v>-1</v>
+      </c>
+      <c r="DL46">
+        <v>-1</v>
+      </c>
+      <c r="DM46">
+        <v>-1</v>
+      </c>
+      <c r="DN46">
+        <v>-1</v>
+      </c>
+      <c r="DO46">
+        <v>0</v>
+      </c>
+      <c r="DP46">
+        <v>0</v>
+      </c>
+      <c r="DQ46">
+        <v>0</v>
+      </c>
+      <c r="DR46">
+        <v>0</v>
+      </c>
+      <c r="DS46">
+        <v>0</v>
+      </c>
+      <c r="DT46">
+        <v>0</v>
+      </c>
+      <c r="DU46">
+        <v>0</v>
+      </c>
+      <c r="DV46">
+        <v>0</v>
+      </c>
+      <c r="DW46">
+        <v>0</v>
+      </c>
+      <c r="DX46">
+        <v>0</v>
+      </c>
+      <c r="DY46">
+        <v>0</v>
+      </c>
+      <c r="DZ46">
+        <v>0</v>
+      </c>
+      <c r="EA46">
+        <v>0</v>
+      </c>
+      <c r="EB46">
+        <v>0</v>
+      </c>
+      <c r="EC46">
+        <v>0</v>
+      </c>
+      <c r="ED46">
+        <v>0</v>
+      </c>
+      <c r="EE46">
+        <v>0</v>
+      </c>
+      <c r="EF46">
+        <v>0</v>
+      </c>
+      <c r="EG46">
+        <v>0</v>
+      </c>
+      <c r="EH46">
+        <v>0</v>
+      </c>
+      <c r="EI46">
+        <v>0</v>
+      </c>
+      <c r="EJ46">
+        <v>0</v>
+      </c>
+      <c r="EK46">
+        <v>0</v>
+      </c>
+      <c r="EL46">
+        <v>0</v>
+      </c>
+      <c r="EM46">
+        <v>0</v>
+      </c>
+      <c r="EN46">
+        <v>0</v>
+      </c>
+      <c r="EO46">
+        <v>0</v>
+      </c>
+      <c r="EP46">
+        <v>0</v>
+      </c>
+      <c r="EQ46">
+        <v>0</v>
+      </c>
+      <c r="ER46">
+        <v>0</v>
+      </c>
+      <c r="ES46">
+        <v>0</v>
+      </c>
+      <c r="ET46">
+        <v>0</v>
+      </c>
+      <c r="EU46">
+        <v>0</v>
+      </c>
+      <c r="EV46">
+        <v>0</v>
+      </c>
+      <c r="EW46">
+        <v>0</v>
+      </c>
+      <c r="EX46">
+        <v>0</v>
+      </c>
+      <c r="EY46">
+        <v>0</v>
+      </c>
+      <c r="EZ46">
+        <v>0</v>
+      </c>
+      <c r="FA46">
+        <v>0</v>
+      </c>
+      <c r="FB46">
+        <v>0</v>
+      </c>
+      <c r="FC46">
+        <v>0</v>
+      </c>
+      <c r="FD46">
+        <v>0</v>
+      </c>
+      <c r="FE46">
+        <v>0</v>
+      </c>
+      <c r="FF46">
+        <v>0</v>
+      </c>
+      <c r="FG46">
+        <v>0</v>
+      </c>
+      <c r="FH46">
+        <v>0</v>
+      </c>
+      <c r="FI46">
+        <v>0</v>
+      </c>
+      <c r="FJ46">
+        <v>0</v>
+      </c>
+      <c r="FK46">
+        <v>0</v>
+      </c>
+      <c r="FL46">
+        <v>0</v>
+      </c>
+      <c r="FM46">
+        <v>0</v>
+      </c>
+      <c r="FN46">
+        <v>0</v>
+      </c>
+      <c r="FO46">
+        <v>0</v>
+      </c>
+      <c r="FP46">
+        <v>0</v>
+      </c>
+      <c r="FQ46">
+        <v>0</v>
+      </c>
+      <c r="FR46">
+        <v>0</v>
+      </c>
+      <c r="FS46">
+        <v>0</v>
+      </c>
+      <c r="FT46">
+        <v>0</v>
+      </c>
+      <c r="FU46">
+        <v>0</v>
+      </c>
+      <c r="FV46">
+        <v>0</v>
+      </c>
+      <c r="FW46">
+        <v>0</v>
+      </c>
+      <c r="FX46">
+        <v>0</v>
+      </c>
+      <c r="FY46">
+        <v>0</v>
+      </c>
+      <c r="FZ46">
+        <v>0</v>
+      </c>
+      <c r="GA46">
+        <v>0</v>
+      </c>
+      <c r="GB46">
+        <v>0</v>
+      </c>
+      <c r="GC46">
+        <v>0</v>
+      </c>
+      <c r="GD46">
+        <v>0</v>
+      </c>
+      <c r="GE46">
+        <v>0</v>
+      </c>
+      <c r="GF46">
+        <v>0</v>
+      </c>
+      <c r="GG46">
+        <v>0</v>
+      </c>
+      <c r="GH46">
+        <v>0</v>
+      </c>
+      <c r="GI46">
+        <v>0</v>
+      </c>
+      <c r="GJ46">
+        <v>0</v>
+      </c>
+      <c r="GK46">
+        <v>0</v>
+      </c>
+      <c r="GL46">
+        <v>-128.37</v>
+      </c>
+      <c r="GM46">
+        <v>0</v>
+      </c>
+      <c r="GN46">
+        <v>0</v>
+      </c>
+      <c r="GO46">
+        <v>0</v>
+      </c>
+      <c r="GP46">
+        <v>-287.67</v>
+      </c>
+      <c r="GQ46">
+        <v>0</v>
+      </c>
+      <c r="GR46">
+        <v>-3401.34</v>
+      </c>
+      <c r="GS46">
+        <v>-1844.52</v>
+      </c>
+      <c r="GT46">
+        <v>0</v>
+      </c>
+      <c r="GU46">
+        <v>0</v>
+      </c>
+      <c r="GV46">
+        <v>0</v>
+      </c>
+      <c r="GW46">
+        <v>0</v>
+      </c>
+      <c r="GX46">
+        <v>0</v>
+      </c>
+      <c r="GY46">
+        <v>0</v>
+      </c>
+      <c r="GZ46">
+        <v>0</v>
+      </c>
+      <c r="HA46">
+        <v>0</v>
+      </c>
+      <c r="HB46">
+        <v>0</v>
+      </c>
+      <c r="HC46">
+        <v>0</v>
+      </c>
+      <c r="HD46">
+        <v>0</v>
+      </c>
+      <c r="HE46">
+        <v>0</v>
+      </c>
+      <c r="HF46">
+        <v>0</v>
+      </c>
+      <c r="HG46">
+        <v>0</v>
+      </c>
+      <c r="HH46">
+        <v>0</v>
+      </c>
+      <c r="HI46">
+        <v>-0.03</v>
+      </c>
+      <c r="HJ46">
+        <v>0</v>
+      </c>
+      <c r="HK46">
+        <v>0</v>
+      </c>
+      <c r="HL46">
+        <v>0</v>
+      </c>
+      <c r="HM46">
+        <v>0</v>
+      </c>
+      <c r="HN46">
+        <v>0</v>
+      </c>
+      <c r="HO46">
+        <v>0</v>
+      </c>
+      <c r="HP46">
+        <v>0</v>
+      </c>
+      <c r="HQ46">
+        <v>0</v>
+      </c>
+      <c r="HR46">
+        <v>0</v>
+      </c>
+      <c r="HS46">
+        <v>0</v>
+      </c>
+      <c r="HT46">
+        <v>0</v>
+      </c>
+      <c r="HU46">
+        <v>0</v>
+      </c>
+      <c r="HV46">
+        <v>0</v>
+      </c>
+      <c r="HW46">
+        <v>0</v>
+      </c>
+      <c r="HX46">
+        <v>0</v>
+      </c>
+      <c r="HY46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:233" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>3</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>1</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>0</v>
+      </c>
+      <c r="BJ47">
+        <v>0</v>
+      </c>
+      <c r="BK47">
+        <v>0</v>
+      </c>
+      <c r="BL47">
+        <v>0</v>
+      </c>
+      <c r="BM47">
+        <v>0</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+      <c r="BO47">
+        <v>0</v>
+      </c>
+      <c r="BP47">
+        <v>0</v>
+      </c>
+      <c r="BQ47">
+        <v>0</v>
+      </c>
+      <c r="BR47">
+        <v>1</v>
+      </c>
+      <c r="BS47">
+        <v>0</v>
+      </c>
+      <c r="BT47">
+        <v>0</v>
+      </c>
+      <c r="BU47">
+        <v>1</v>
+      </c>
+      <c r="BV47">
+        <v>0</v>
+      </c>
+      <c r="BW47">
+        <v>0</v>
+      </c>
+      <c r="BX47">
+        <v>0</v>
+      </c>
+      <c r="BY47">
+        <v>0</v>
+      </c>
+      <c r="BZ47">
+        <v>0</v>
+      </c>
+      <c r="CA47">
+        <v>1</v>
+      </c>
+      <c r="CB47">
+        <v>0</v>
+      </c>
+      <c r="CC47">
+        <v>0</v>
+      </c>
+      <c r="CD47">
+        <v>0</v>
+      </c>
+      <c r="CE47">
+        <v>0</v>
+      </c>
+      <c r="CF47">
+        <v>0</v>
+      </c>
+      <c r="CG47">
+        <v>0</v>
+      </c>
+      <c r="CH47">
+        <v>0</v>
+      </c>
+      <c r="CI47">
+        <v>0</v>
+      </c>
+      <c r="CJ47">
+        <v>0</v>
+      </c>
+      <c r="CK47">
+        <v>0</v>
+      </c>
+      <c r="CL47">
+        <v>0</v>
+      </c>
+      <c r="CM47">
+        <v>0</v>
+      </c>
+      <c r="CN47">
+        <v>0</v>
+      </c>
+      <c r="CO47">
+        <v>0</v>
+      </c>
+      <c r="CP47">
+        <v>0</v>
+      </c>
+      <c r="CQ47">
+        <v>0</v>
+      </c>
+      <c r="CR47">
+        <v>0</v>
+      </c>
+      <c r="CS47">
+        <v>0</v>
+      </c>
+      <c r="CT47">
+        <v>0</v>
+      </c>
+      <c r="CU47">
+        <v>0</v>
+      </c>
+      <c r="CV47">
+        <v>0</v>
+      </c>
+      <c r="CW47">
+        <v>0</v>
+      </c>
+      <c r="CX47">
+        <v>0</v>
+      </c>
+      <c r="CY47">
+        <v>0</v>
+      </c>
+      <c r="CZ47">
+        <v>0</v>
+      </c>
+      <c r="DA47">
+        <v>0</v>
+      </c>
+      <c r="DB47">
+        <v>0</v>
+      </c>
+      <c r="DC47">
+        <v>0</v>
+      </c>
+      <c r="DD47">
+        <v>0</v>
+      </c>
+      <c r="DE47">
+        <v>0</v>
+      </c>
+      <c r="DF47">
+        <v>0</v>
+      </c>
+      <c r="DG47">
+        <v>0</v>
+      </c>
+      <c r="DH47">
+        <v>0</v>
+      </c>
+      <c r="DI47">
+        <v>0</v>
+      </c>
+      <c r="DJ47">
+        <v>0</v>
+      </c>
+      <c r="DK47">
+        <v>0</v>
+      </c>
+      <c r="DL47">
+        <v>0</v>
+      </c>
+      <c r="DM47">
+        <v>0</v>
+      </c>
+      <c r="DN47">
+        <v>0</v>
+      </c>
+      <c r="DO47">
+        <v>0</v>
+      </c>
+      <c r="DP47">
+        <v>0</v>
+      </c>
+      <c r="DQ47">
+        <v>0</v>
+      </c>
+      <c r="DR47">
+        <v>0</v>
+      </c>
+      <c r="DS47">
+        <v>0</v>
+      </c>
+      <c r="DT47">
+        <v>0</v>
+      </c>
+      <c r="DU47">
+        <v>0</v>
+      </c>
+      <c r="DV47">
+        <v>0</v>
+      </c>
+      <c r="DW47">
+        <v>0</v>
+      </c>
+      <c r="DX47">
+        <v>0</v>
+      </c>
+      <c r="DY47">
+        <v>0</v>
+      </c>
+      <c r="DZ47">
+        <v>0</v>
+      </c>
+      <c r="EA47">
+        <v>0</v>
+      </c>
+      <c r="EB47">
+        <v>0</v>
+      </c>
+      <c r="EC47">
+        <v>0</v>
+      </c>
+      <c r="ED47">
+        <v>0</v>
+      </c>
+      <c r="EE47">
+        <v>0</v>
+      </c>
+      <c r="EF47">
+        <v>0</v>
+      </c>
+      <c r="EG47">
+        <v>0</v>
+      </c>
+      <c r="EH47">
+        <v>0</v>
+      </c>
+      <c r="EI47">
+        <v>0</v>
+      </c>
+      <c r="EJ47">
+        <v>0</v>
+      </c>
+      <c r="EK47">
+        <v>0</v>
+      </c>
+      <c r="EL47">
+        <v>0</v>
+      </c>
+      <c r="EM47">
+        <v>0</v>
+      </c>
+      <c r="EN47">
+        <v>0</v>
+      </c>
+      <c r="EO47">
+        <v>0</v>
+      </c>
+      <c r="EP47">
+        <v>0</v>
+      </c>
+      <c r="EQ47">
+        <v>0</v>
+      </c>
+      <c r="ER47">
+        <v>0</v>
+      </c>
+      <c r="ES47">
+        <v>0</v>
+      </c>
+      <c r="ET47">
+        <v>0</v>
+      </c>
+      <c r="EU47">
+        <v>0</v>
+      </c>
+      <c r="EV47">
+        <v>0</v>
+      </c>
+      <c r="EW47">
+        <v>0</v>
+      </c>
+      <c r="EX47">
+        <v>0</v>
+      </c>
+      <c r="EY47">
+        <v>0</v>
+      </c>
+      <c r="EZ47">
+        <v>0</v>
+      </c>
+      <c r="FA47">
+        <v>0</v>
+      </c>
+      <c r="FB47">
+        <v>0</v>
+      </c>
+      <c r="FC47">
+        <v>0</v>
+      </c>
+      <c r="FD47">
+        <v>0</v>
+      </c>
+      <c r="FE47">
+        <v>0</v>
+      </c>
+      <c r="FF47">
+        <v>0</v>
+      </c>
+      <c r="FG47">
+        <v>0</v>
+      </c>
+      <c r="FH47">
+        <v>0</v>
+      </c>
+      <c r="FI47">
+        <v>0</v>
+      </c>
+      <c r="FJ47">
+        <v>0</v>
+      </c>
+      <c r="FK47">
+        <v>1</v>
+      </c>
+      <c r="FL47">
+        <v>0</v>
+      </c>
+      <c r="FM47">
+        <v>0</v>
+      </c>
+      <c r="FN47">
+        <v>0</v>
+      </c>
+      <c r="FO47">
+        <v>0</v>
+      </c>
+      <c r="FP47">
+        <v>0</v>
+      </c>
+      <c r="FQ47">
+        <v>0</v>
+      </c>
+      <c r="FR47">
+        <v>0</v>
+      </c>
+      <c r="FS47">
+        <v>0</v>
+      </c>
+      <c r="FT47">
+        <v>0</v>
+      </c>
+      <c r="FU47">
+        <v>0</v>
+      </c>
+      <c r="FV47">
+        <v>0</v>
+      </c>
+      <c r="FW47">
+        <v>0</v>
+      </c>
+      <c r="FX47">
+        <v>0</v>
+      </c>
+      <c r="FY47">
+        <v>0</v>
+      </c>
+      <c r="FZ47">
+        <v>0</v>
+      </c>
+      <c r="GA47">
+        <v>0</v>
+      </c>
+      <c r="GB47">
+        <v>0</v>
+      </c>
+      <c r="GC47">
+        <v>0</v>
+      </c>
+      <c r="GD47">
+        <v>0</v>
+      </c>
+      <c r="GE47">
+        <v>0</v>
+      </c>
+      <c r="GF47">
+        <v>0</v>
+      </c>
+      <c r="GG47">
+        <v>0</v>
+      </c>
+      <c r="GH47">
+        <v>0</v>
+      </c>
+      <c r="GI47">
+        <v>0</v>
+      </c>
+      <c r="GJ47">
+        <v>0</v>
+      </c>
+      <c r="GK47">
+        <v>0</v>
+      </c>
+      <c r="GL47">
+        <v>0</v>
+      </c>
+      <c r="GM47">
+        <v>0</v>
+      </c>
+      <c r="GN47">
+        <v>0</v>
+      </c>
+      <c r="GO47">
+        <v>0</v>
+      </c>
+      <c r="GP47">
+        <v>0</v>
+      </c>
+      <c r="GQ47">
+        <v>0</v>
+      </c>
+      <c r="GR47">
+        <v>1</v>
+      </c>
+      <c r="GS47">
+        <v>1</v>
+      </c>
+      <c r="GT47">
+        <v>0</v>
+      </c>
+      <c r="GU47">
+        <v>0</v>
+      </c>
+      <c r="GV47">
+        <v>0</v>
+      </c>
+      <c r="GW47">
+        <v>0</v>
+      </c>
+      <c r="GX47">
+        <v>0</v>
+      </c>
+      <c r="GY47">
+        <v>0</v>
+      </c>
+      <c r="GZ47">
+        <v>0</v>
+      </c>
+      <c r="HA47">
+        <v>0</v>
+      </c>
+      <c r="HB47">
+        <v>0</v>
+      </c>
+      <c r="HC47">
+        <v>0</v>
+      </c>
+      <c r="HD47">
+        <v>0</v>
+      </c>
+      <c r="HE47">
+        <v>0</v>
+      </c>
+      <c r="HF47">
+        <v>0</v>
+      </c>
+      <c r="HG47">
+        <v>0</v>
+      </c>
+      <c r="HH47">
+        <v>0</v>
+      </c>
+      <c r="HI47">
+        <v>0</v>
+      </c>
+      <c r="HJ47">
+        <v>0</v>
+      </c>
+      <c r="HK47">
+        <v>0</v>
+      </c>
+      <c r="HL47">
+        <v>0</v>
+      </c>
+      <c r="HM47">
+        <v>0</v>
+      </c>
+      <c r="HN47">
+        <v>0</v>
+      </c>
+      <c r="HO47">
+        <v>0</v>
+      </c>
+      <c r="HP47">
+        <v>0</v>
+      </c>
+      <c r="HQ47">
+        <v>0</v>
+      </c>
+      <c r="HR47">
+        <v>0</v>
+      </c>
+      <c r="HS47">
+        <v>0</v>
+      </c>
+      <c r="HT47">
+        <v>0</v>
+      </c>
+      <c r="HU47">
+        <v>0</v>
+      </c>
+      <c r="HV47">
+        <v>0</v>
+      </c>
+      <c r="HW47">
+        <v>0</v>
+      </c>
+      <c r="HX47">
+        <v>0</v>
+      </c>
+      <c r="HY47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:233" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <v>3</v>
+      </c>
+      <c r="Z48">
+        <v>3</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>1</v>
+      </c>
+      <c r="BG48">
+        <v>1</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
+        <v>0</v>
+      </c>
+      <c r="BL48">
+        <v>0</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>1</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>0</v>
+      </c>
+      <c r="BQ48">
+        <v>0</v>
+      </c>
+      <c r="BR48">
+        <v>1</v>
+      </c>
+      <c r="BS48">
+        <v>0</v>
+      </c>
+      <c r="BT48">
+        <v>0</v>
+      </c>
+      <c r="BU48">
+        <v>1</v>
+      </c>
+      <c r="BV48">
+        <v>1</v>
+      </c>
+      <c r="BW48">
+        <v>0</v>
+      </c>
+      <c r="BX48">
+        <v>0</v>
+      </c>
+      <c r="BY48">
+        <v>1</v>
+      </c>
+      <c r="BZ48">
+        <v>0</v>
+      </c>
+      <c r="CA48">
+        <v>1</v>
+      </c>
+      <c r="CB48">
+        <v>0</v>
+      </c>
+      <c r="CC48">
+        <v>0</v>
+      </c>
+      <c r="CD48">
+        <v>0</v>
+      </c>
+      <c r="CE48">
+        <v>0</v>
+      </c>
+      <c r="CF48">
+        <v>0</v>
+      </c>
+      <c r="CG48">
+        <v>0</v>
+      </c>
+      <c r="CH48">
+        <v>0</v>
+      </c>
+      <c r="CI48">
+        <v>0</v>
+      </c>
+      <c r="CJ48">
+        <v>0</v>
+      </c>
+      <c r="CK48">
+        <v>0</v>
+      </c>
+      <c r="CL48">
+        <v>0</v>
+      </c>
+      <c r="CM48">
+        <v>0</v>
+      </c>
+      <c r="CN48">
+        <v>0</v>
+      </c>
+      <c r="CO48">
+        <v>1</v>
+      </c>
+      <c r="CP48">
+        <v>0</v>
+      </c>
+      <c r="CQ48">
+        <v>0</v>
+      </c>
+      <c r="CR48">
+        <v>0</v>
+      </c>
+      <c r="CS48">
+        <v>0</v>
+      </c>
+      <c r="CT48">
+        <v>0</v>
+      </c>
+      <c r="CU48">
+        <v>0</v>
+      </c>
+      <c r="CV48">
+        <v>1</v>
+      </c>
+      <c r="CW48">
+        <v>0</v>
+      </c>
+      <c r="CX48">
+        <v>1</v>
+      </c>
+      <c r="CY48">
+        <v>0</v>
+      </c>
+      <c r="CZ48">
+        <v>0</v>
+      </c>
+      <c r="DA48">
+        <v>0</v>
+      </c>
+      <c r="DB48">
+        <v>0</v>
+      </c>
+      <c r="DC48">
+        <v>0</v>
+      </c>
+      <c r="DD48">
+        <v>0</v>
+      </c>
+      <c r="DE48">
+        <v>0</v>
+      </c>
+      <c r="DF48">
+        <v>0</v>
+      </c>
+      <c r="DG48">
+        <v>0</v>
+      </c>
+      <c r="DH48">
+        <v>0</v>
+      </c>
+      <c r="DI48">
+        <v>0</v>
+      </c>
+      <c r="DJ48">
+        <v>0</v>
+      </c>
+      <c r="DK48">
+        <v>0</v>
+      </c>
+      <c r="DL48">
+        <v>0</v>
+      </c>
+      <c r="DM48">
+        <v>0</v>
+      </c>
+      <c r="DN48">
+        <v>0</v>
+      </c>
+      <c r="DO48">
+        <v>0</v>
+      </c>
+      <c r="DP48">
+        <v>0</v>
+      </c>
+      <c r="DQ48">
+        <v>0</v>
+      </c>
+      <c r="DR48">
+        <v>0</v>
+      </c>
+      <c r="DS48">
+        <v>0</v>
+      </c>
+      <c r="DT48">
+        <v>0</v>
+      </c>
+      <c r="DU48">
+        <v>0</v>
+      </c>
+      <c r="DV48">
+        <v>0</v>
+      </c>
+      <c r="DW48">
+        <v>0</v>
+      </c>
+      <c r="DX48">
+        <v>0</v>
+      </c>
+      <c r="DY48">
+        <v>0</v>
+      </c>
+      <c r="DZ48">
+        <v>0</v>
+      </c>
+      <c r="EA48">
+        <v>0</v>
+      </c>
+      <c r="EB48">
+        <v>0</v>
+      </c>
+      <c r="EC48">
+        <v>0</v>
+      </c>
+      <c r="ED48">
+        <v>0</v>
+      </c>
+      <c r="EE48">
+        <v>0</v>
+      </c>
+      <c r="EF48">
+        <v>0</v>
+      </c>
+      <c r="EG48">
+        <v>0</v>
+      </c>
+      <c r="EH48">
+        <v>0</v>
+      </c>
+      <c r="EI48">
+        <v>0</v>
+      </c>
+      <c r="EJ48">
+        <v>0</v>
+      </c>
+      <c r="EK48">
+        <v>0</v>
+      </c>
+      <c r="EL48">
+        <v>0</v>
+      </c>
+      <c r="EM48">
+        <v>0</v>
+      </c>
+      <c r="EN48">
+        <v>0</v>
+      </c>
+      <c r="EO48">
+        <v>0</v>
+      </c>
+      <c r="EP48">
+        <v>0</v>
+      </c>
+      <c r="EQ48">
+        <v>0</v>
+      </c>
+      <c r="ER48">
+        <v>0</v>
+      </c>
+      <c r="ES48">
+        <v>0</v>
+      </c>
+      <c r="ET48">
+        <v>0</v>
+      </c>
+      <c r="EU48">
+        <v>0</v>
+      </c>
+      <c r="EV48">
+        <v>0</v>
+      </c>
+      <c r="EW48">
+        <v>0</v>
+      </c>
+      <c r="EX48">
+        <v>0</v>
+      </c>
+      <c r="EY48">
+        <v>0</v>
+      </c>
+      <c r="EZ48">
+        <v>0</v>
+      </c>
+      <c r="FA48">
+        <v>0</v>
+      </c>
+      <c r="FB48">
+        <v>0</v>
+      </c>
+      <c r="FC48">
+        <v>1</v>
+      </c>
+      <c r="FD48">
+        <v>0</v>
+      </c>
+      <c r="FE48">
+        <v>0</v>
+      </c>
+      <c r="FF48">
+        <v>0</v>
+      </c>
+      <c r="FG48">
+        <v>0</v>
+      </c>
+      <c r="FH48">
+        <v>0</v>
+      </c>
+      <c r="FI48">
+        <v>0</v>
+      </c>
+      <c r="FJ48">
+        <v>0</v>
+      </c>
+      <c r="FK48">
+        <v>1</v>
+      </c>
+      <c r="FL48">
+        <v>0</v>
+      </c>
+      <c r="FM48">
+        <v>0</v>
+      </c>
+      <c r="FN48">
+        <v>0</v>
+      </c>
+      <c r="FO48">
+        <v>0</v>
+      </c>
+      <c r="FP48">
+        <v>0</v>
+      </c>
+      <c r="FQ48">
+        <v>0</v>
+      </c>
+      <c r="FR48">
+        <v>0</v>
+      </c>
+      <c r="FS48">
+        <v>0</v>
+      </c>
+      <c r="FT48">
+        <v>0</v>
+      </c>
+      <c r="FU48">
+        <v>0</v>
+      </c>
+      <c r="FV48">
+        <v>0</v>
+      </c>
+      <c r="FW48">
+        <v>0</v>
+      </c>
+      <c r="FX48">
+        <v>0</v>
+      </c>
+      <c r="FY48">
+        <v>0</v>
+      </c>
+      <c r="FZ48">
+        <v>0</v>
+      </c>
+      <c r="GA48">
+        <v>0</v>
+      </c>
+      <c r="GB48">
+        <v>0</v>
+      </c>
+      <c r="GC48">
+        <v>0</v>
+      </c>
+      <c r="GD48">
+        <v>0</v>
+      </c>
+      <c r="GE48">
+        <v>0</v>
+      </c>
+      <c r="GF48">
+        <v>0</v>
+      </c>
+      <c r="GG48">
+        <v>0</v>
+      </c>
+      <c r="GH48">
+        <v>0</v>
+      </c>
+      <c r="GI48">
+        <v>0</v>
+      </c>
+      <c r="GJ48">
+        <v>0</v>
+      </c>
+      <c r="GK48">
+        <v>0</v>
+      </c>
+      <c r="GL48">
+        <v>1</v>
+      </c>
+      <c r="GM48">
+        <v>1</v>
+      </c>
+      <c r="GN48">
+        <v>1</v>
+      </c>
+      <c r="GO48">
+        <v>1</v>
+      </c>
+      <c r="GP48">
+        <v>0</v>
+      </c>
+      <c r="GQ48">
+        <v>0</v>
+      </c>
+      <c r="GR48">
+        <v>1</v>
+      </c>
+      <c r="GS48">
+        <v>1</v>
+      </c>
+      <c r="GT48">
+        <v>0</v>
+      </c>
+      <c r="GU48">
+        <v>0</v>
+      </c>
+      <c r="GV48">
+        <v>0</v>
+      </c>
+      <c r="GW48">
+        <v>0</v>
+      </c>
+      <c r="GX48">
+        <v>0</v>
+      </c>
+      <c r="GY48">
+        <v>0</v>
+      </c>
+      <c r="GZ48">
+        <v>0</v>
+      </c>
+      <c r="HA48">
+        <v>0</v>
+      </c>
+      <c r="HB48">
+        <v>0</v>
+      </c>
+      <c r="HC48">
+        <v>0</v>
+      </c>
+      <c r="HD48">
+        <v>0</v>
+      </c>
+      <c r="HE48">
+        <v>0</v>
+      </c>
+      <c r="HF48">
+        <v>0</v>
+      </c>
+      <c r="HG48">
+        <v>0</v>
+      </c>
+      <c r="HH48">
+        <v>0</v>
+      </c>
+      <c r="HI48">
+        <v>0</v>
+      </c>
+      <c r="HJ48">
+        <v>0</v>
+      </c>
+      <c r="HK48">
+        <v>0</v>
+      </c>
+      <c r="HL48">
+        <v>0</v>
+      </c>
+      <c r="HM48">
+        <v>0</v>
+      </c>
+      <c r="HN48">
+        <v>0</v>
+      </c>
+      <c r="HO48">
+        <v>0</v>
+      </c>
+      <c r="HP48">
+        <v>0</v>
+      </c>
+      <c r="HQ48">
+        <v>0</v>
+      </c>
+      <c r="HR48">
+        <v>0</v>
+      </c>
+      <c r="HS48">
+        <v>0</v>
+      </c>
+      <c r="HT48">
+        <v>0</v>
+      </c>
+      <c r="HU48">
+        <v>0</v>
+      </c>
+      <c r="HV48">
+        <v>0</v>
+      </c>
+      <c r="HW48">
+        <v>0</v>
+      </c>
+      <c r="HX48">
+        <v>1</v>
+      </c>
+      <c r="HY48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:233" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>3</v>
+      </c>
+      <c r="Z49">
+        <v>3</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>1</v>
+      </c>
+      <c r="BG49">
+        <v>1</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>0</v>
+      </c>
+      <c r="BJ49">
+        <v>0</v>
+      </c>
+      <c r="BK49">
+        <v>0</v>
+      </c>
+      <c r="BL49">
+        <v>0</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>1</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
+        <v>0</v>
+      </c>
+      <c r="BQ49">
+        <v>0</v>
+      </c>
+      <c r="BR49">
+        <v>1</v>
+      </c>
+      <c r="BS49">
+        <v>0</v>
+      </c>
+      <c r="BT49">
+        <v>0</v>
+      </c>
+      <c r="BU49">
+        <v>1</v>
+      </c>
+      <c r="BV49">
+        <v>1</v>
+      </c>
+      <c r="BW49">
+        <v>0</v>
+      </c>
+      <c r="BX49">
+        <v>0</v>
+      </c>
+      <c r="BY49">
+        <v>1</v>
+      </c>
+      <c r="BZ49">
+        <v>0</v>
+      </c>
+      <c r="CA49">
+        <v>1</v>
+      </c>
+      <c r="CB49">
+        <v>0</v>
+      </c>
+      <c r="CC49">
+        <v>0</v>
+      </c>
+      <c r="CD49">
+        <v>0</v>
+      </c>
+      <c r="CE49">
+        <v>0</v>
+      </c>
+      <c r="CF49">
+        <v>0</v>
+      </c>
+      <c r="CG49">
+        <v>0</v>
+      </c>
+      <c r="CH49">
+        <v>0</v>
+      </c>
+      <c r="CI49">
+        <v>0</v>
+      </c>
+      <c r="CJ49">
+        <v>0</v>
+      </c>
+      <c r="CK49">
+        <v>0</v>
+      </c>
+      <c r="CL49">
+        <v>0</v>
+      </c>
+      <c r="CM49">
+        <v>0</v>
+      </c>
+      <c r="CN49">
+        <v>0</v>
+      </c>
+      <c r="CO49">
+        <v>1</v>
+      </c>
+      <c r="CP49">
+        <v>0</v>
+      </c>
+      <c r="CQ49">
+        <v>0</v>
+      </c>
+      <c r="CR49">
+        <v>0</v>
+      </c>
+      <c r="CS49">
+        <v>0</v>
+      </c>
+      <c r="CT49">
+        <v>0</v>
+      </c>
+      <c r="CU49">
+        <v>0</v>
+      </c>
+      <c r="CV49">
+        <v>1</v>
+      </c>
+      <c r="CW49">
+        <v>0</v>
+      </c>
+      <c r="CX49">
+        <v>1</v>
+      </c>
+      <c r="CY49">
+        <v>0</v>
+      </c>
+      <c r="CZ49">
+        <v>0</v>
+      </c>
+      <c r="DA49">
+        <v>0</v>
+      </c>
+      <c r="DB49">
+        <v>0</v>
+      </c>
+      <c r="DC49">
+        <v>0</v>
+      </c>
+      <c r="DD49">
+        <v>0</v>
+      </c>
+      <c r="DE49">
+        <v>0</v>
+      </c>
+      <c r="DF49">
+        <v>0</v>
+      </c>
+      <c r="DG49">
+        <v>0</v>
+      </c>
+      <c r="DH49">
+        <v>0</v>
+      </c>
+      <c r="DI49">
+        <v>0</v>
+      </c>
+      <c r="DJ49">
+        <v>0</v>
+      </c>
+      <c r="DK49">
+        <v>0</v>
+      </c>
+      <c r="DL49">
+        <v>0</v>
+      </c>
+      <c r="DM49">
+        <v>0</v>
+      </c>
+      <c r="DN49">
+        <v>0</v>
+      </c>
+      <c r="DO49">
+        <v>0</v>
+      </c>
+      <c r="DP49">
+        <v>0</v>
+      </c>
+      <c r="DQ49">
+        <v>0</v>
+      </c>
+      <c r="DR49">
+        <v>0</v>
+      </c>
+      <c r="DS49">
+        <v>0</v>
+      </c>
+      <c r="DT49">
+        <v>0</v>
+      </c>
+      <c r="DU49">
+        <v>0</v>
+      </c>
+      <c r="DV49">
+        <v>0</v>
+      </c>
+      <c r="DW49">
+        <v>0</v>
+      </c>
+      <c r="DX49">
+        <v>0</v>
+      </c>
+      <c r="DY49">
+        <v>0</v>
+      </c>
+      <c r="DZ49">
+        <v>0</v>
+      </c>
+      <c r="EA49">
+        <v>0</v>
+      </c>
+      <c r="EB49">
+        <v>0</v>
+      </c>
+      <c r="EC49">
+        <v>0</v>
+      </c>
+      <c r="ED49">
+        <v>0</v>
+      </c>
+      <c r="EE49">
+        <v>0</v>
+      </c>
+      <c r="EF49">
+        <v>0</v>
+      </c>
+      <c r="EG49">
+        <v>0</v>
+      </c>
+      <c r="EH49">
+        <v>0</v>
+      </c>
+      <c r="EI49">
+        <v>0</v>
+      </c>
+      <c r="EJ49">
+        <v>0</v>
+      </c>
+      <c r="EK49">
+        <v>0</v>
+      </c>
+      <c r="EL49">
+        <v>0</v>
+      </c>
+      <c r="EM49">
+        <v>0</v>
+      </c>
+      <c r="EN49">
+        <v>0</v>
+      </c>
+      <c r="EO49">
+        <v>0</v>
+      </c>
+      <c r="EP49">
+        <v>0</v>
+      </c>
+      <c r="EQ49">
+        <v>0</v>
+      </c>
+      <c r="ER49">
+        <v>0</v>
+      </c>
+      <c r="ES49">
+        <v>0</v>
+      </c>
+      <c r="ET49">
+        <v>0</v>
+      </c>
+      <c r="EU49">
+        <v>0</v>
+      </c>
+      <c r="EV49">
+        <v>0</v>
+      </c>
+      <c r="EW49">
+        <v>0</v>
+      </c>
+      <c r="EX49">
+        <v>0</v>
+      </c>
+      <c r="EY49">
+        <v>0</v>
+      </c>
+      <c r="EZ49">
+        <v>0</v>
+      </c>
+      <c r="FA49">
+        <v>0</v>
+      </c>
+      <c r="FB49">
+        <v>1</v>
+      </c>
+      <c r="FC49">
+        <v>1</v>
+      </c>
+      <c r="FD49">
+        <v>0</v>
+      </c>
+      <c r="FE49">
+        <v>0</v>
+      </c>
+      <c r="FF49">
+        <v>0</v>
+      </c>
+      <c r="FG49">
+        <v>0</v>
+      </c>
+      <c r="FH49">
+        <v>0</v>
+      </c>
+      <c r="FI49">
+        <v>0</v>
+      </c>
+      <c r="FJ49">
+        <v>0</v>
+      </c>
+      <c r="FK49">
+        <v>1</v>
+      </c>
+      <c r="FL49">
+        <v>0</v>
+      </c>
+      <c r="FM49">
+        <v>0</v>
+      </c>
+      <c r="FN49">
+        <v>0</v>
+      </c>
+      <c r="FO49">
+        <v>0</v>
+      </c>
+      <c r="FP49">
+        <v>0</v>
+      </c>
+      <c r="FQ49">
+        <v>0</v>
+      </c>
+      <c r="FR49">
+        <v>0</v>
+      </c>
+      <c r="FS49">
+        <v>0</v>
+      </c>
+      <c r="FT49">
+        <v>0</v>
+      </c>
+      <c r="FU49">
+        <v>0</v>
+      </c>
+      <c r="FV49">
+        <v>0</v>
+      </c>
+      <c r="FW49">
+        <v>0</v>
+      </c>
+      <c r="FX49">
+        <v>0</v>
+      </c>
+      <c r="FY49">
+        <v>0</v>
+      </c>
+      <c r="FZ49">
+        <v>0</v>
+      </c>
+      <c r="GA49">
+        <v>0</v>
+      </c>
+      <c r="GB49">
+        <v>0</v>
+      </c>
+      <c r="GC49">
+        <v>0</v>
+      </c>
+      <c r="GD49">
+        <v>0</v>
+      </c>
+      <c r="GE49">
+        <v>0</v>
+      </c>
+      <c r="GF49">
+        <v>0</v>
+      </c>
+      <c r="GG49">
+        <v>0</v>
+      </c>
+      <c r="GH49">
+        <v>1</v>
+      </c>
+      <c r="GI49">
+        <v>0</v>
+      </c>
+      <c r="GJ49">
+        <v>0</v>
+      </c>
+      <c r="GK49">
+        <v>1</v>
+      </c>
+      <c r="GL49">
+        <v>1</v>
+      </c>
+      <c r="GM49">
+        <v>1</v>
+      </c>
+      <c r="GN49">
+        <v>1</v>
+      </c>
+      <c r="GO49">
+        <v>1</v>
+      </c>
+      <c r="GP49">
+        <v>0</v>
+      </c>
+      <c r="GQ49">
+        <v>0</v>
+      </c>
+      <c r="GR49">
+        <v>1</v>
+      </c>
+      <c r="GS49">
+        <v>1</v>
+      </c>
+      <c r="GT49">
+        <v>0</v>
+      </c>
+      <c r="GU49">
+        <v>0</v>
+      </c>
+      <c r="GV49">
+        <v>0</v>
+      </c>
+      <c r="GW49">
+        <v>0</v>
+      </c>
+      <c r="GX49">
+        <v>0</v>
+      </c>
+      <c r="GY49">
+        <v>0</v>
+      </c>
+      <c r="GZ49">
+        <v>0</v>
+      </c>
+      <c r="HA49">
+        <v>0</v>
+      </c>
+      <c r="HB49">
+        <v>0</v>
+      </c>
+      <c r="HC49">
+        <v>0</v>
+      </c>
+      <c r="HD49">
+        <v>0</v>
+      </c>
+      <c r="HE49">
+        <v>0</v>
+      </c>
+      <c r="HF49">
+        <v>0</v>
+      </c>
+      <c r="HG49">
+        <v>0</v>
+      </c>
+      <c r="HH49">
+        <v>0</v>
+      </c>
+      <c r="HI49">
+        <v>0</v>
+      </c>
+      <c r="HJ49">
+        <v>0</v>
+      </c>
+      <c r="HK49">
+        <v>0</v>
+      </c>
+      <c r="HL49">
+        <v>0</v>
+      </c>
+      <c r="HM49">
+        <v>0</v>
+      </c>
+      <c r="HN49">
+        <v>0</v>
+      </c>
+      <c r="HO49">
+        <v>0</v>
+      </c>
+      <c r="HP49">
+        <v>0</v>
+      </c>
+      <c r="HQ49">
+        <v>0</v>
+      </c>
+      <c r="HR49">
+        <v>0</v>
+      </c>
+      <c r="HS49">
+        <v>0</v>
+      </c>
+      <c r="HT49">
+        <v>0</v>
+      </c>
+      <c r="HU49">
+        <v>0</v>
+      </c>
+      <c r="HV49">
+        <v>0</v>
+      </c>
+      <c r="HW49">
+        <v>0</v>
+      </c>
+      <c r="HX49">
+        <v>1</v>
+      </c>
+      <c r="HY49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:233" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50">
+        <v>238</v>
+      </c>
+      <c r="D50">
+        <v>105</v>
+      </c>
+      <c r="E50">
+        <v>210000</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>21024.81</v>
+      </c>
+      <c r="H50">
+        <v>8237.82</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>6600</v>
+      </c>
+      <c r="K50">
+        <v>6600</v>
+      </c>
+      <c r="L50">
+        <v>8237.82</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>16566.810000000001</v>
+      </c>
+      <c r="O50">
+        <v>45990</v>
+      </c>
+      <c r="P50">
+        <v>131100</v>
+      </c>
+      <c r="Q50">
+        <v>47598.09</v>
+      </c>
+      <c r="R50">
+        <v>45990</v>
+      </c>
+      <c r="S50">
+        <v>131100</v>
+      </c>
+      <c r="T50">
+        <v>47598.09</v>
+      </c>
+      <c r="U50">
+        <v>105000</v>
+      </c>
+      <c r="V50">
+        <v>6</v>
+      </c>
+      <c r="W50">
+        <v>6</v>
+      </c>
+      <c r="X50">
+        <v>7</v>
+      </c>
+      <c r="Y50">
+        <v>15</v>
+      </c>
+      <c r="Z50">
+        <v>15</v>
+      </c>
+      <c r="AA50">
+        <v>6</v>
+      </c>
+      <c r="AB50">
+        <v>1</v>
+      </c>
+      <c r="AC50">
+        <v>15</v>
+      </c>
+      <c r="AD50">
+        <v>18</v>
+      </c>
+      <c r="AE50">
+        <v>6</v>
+      </c>
+      <c r="AF50">
+        <v>6</v>
+      </c>
+      <c r="AG50">
+        <v>18</v>
+      </c>
+      <c r="AH50">
+        <v>18</v>
+      </c>
+      <c r="AI50">
+        <v>18</v>
+      </c>
+      <c r="AJ50">
+        <v>111</v>
+      </c>
+      <c r="AK50">
+        <v>12</v>
+      </c>
+      <c r="AL50">
+        <v>36</v>
+      </c>
+      <c r="AM50">
+        <v>27</v>
+      </c>
+      <c r="AN50">
+        <v>9</v>
+      </c>
+      <c r="AO50">
+        <v>6</v>
+      </c>
+      <c r="AP50">
+        <v>33</v>
+      </c>
+      <c r="AQ50">
+        <v>33</v>
+      </c>
+      <c r="AR50">
+        <v>33</v>
+      </c>
+      <c r="AS50">
+        <v>33</v>
+      </c>
+      <c r="AT50">
+        <v>117</v>
+      </c>
+      <c r="AU50">
+        <v>48</v>
+      </c>
+      <c r="AV50">
+        <v>234</v>
+      </c>
+      <c r="AW50">
+        <v>351</v>
+      </c>
+      <c r="AX50">
+        <v>249</v>
+      </c>
+      <c r="AY50">
+        <v>81</v>
+      </c>
+      <c r="AZ50">
+        <v>468</v>
+      </c>
+      <c r="BA50">
+        <v>468</v>
+      </c>
+      <c r="BB50">
+        <v>249</v>
+      </c>
+      <c r="BC50">
+        <v>81</v>
+      </c>
+      <c r="BD50">
+        <v>468</v>
+      </c>
+      <c r="BE50">
+        <v>468</v>
+      </c>
+      <c r="BF50">
+        <v>1</v>
+      </c>
+      <c r="BG50">
+        <v>33</v>
+      </c>
+      <c r="BH50">
+        <v>36</v>
+      </c>
+      <c r="BI50">
+        <v>27</v>
+      </c>
+      <c r="BJ50">
+        <v>12</v>
+      </c>
+      <c r="BK50">
+        <v>12</v>
+      </c>
+      <c r="BL50">
+        <v>12</v>
+      </c>
+      <c r="BM50">
+        <v>6</v>
+      </c>
+      <c r="BN50">
+        <v>36</v>
+      </c>
+      <c r="BO50">
+        <v>105</v>
+      </c>
+      <c r="BP50">
+        <v>114</v>
+      </c>
+      <c r="BQ50">
+        <v>114</v>
+      </c>
+      <c r="BR50">
+        <v>33</v>
+      </c>
+      <c r="BS50">
+        <v>6</v>
+      </c>
+      <c r="BT50">
+        <v>33</v>
+      </c>
+      <c r="BU50">
+        <v>1</v>
+      </c>
+      <c r="BV50">
+        <v>18</v>
+      </c>
+      <c r="BW50">
+        <v>6</v>
+      </c>
+      <c r="BX50">
+        <v>3000000</v>
+      </c>
+      <c r="BY50">
+        <v>619329.15</v>
+      </c>
+      <c r="BZ50">
+        <v>19531.8</v>
+      </c>
+      <c r="CA50">
+        <v>240045</v>
+      </c>
+      <c r="CB50">
+        <v>3008077.32</v>
+      </c>
+      <c r="CC50">
+        <v>1</v>
+      </c>
+      <c r="CD50">
+        <v>1500000</v>
+      </c>
+      <c r="CE50">
+        <v>30000</v>
+      </c>
+      <c r="CF50">
+        <v>1500000</v>
+      </c>
+      <c r="CG50">
+        <v>450000</v>
+      </c>
+      <c r="CH50">
+        <v>6119500.1399999997</v>
+      </c>
+      <c r="CI50">
+        <v>3000000</v>
+      </c>
+      <c r="CJ50">
+        <v>455858.16</v>
+      </c>
+      <c r="CK50">
+        <v>3008077.32</v>
+      </c>
+      <c r="CL50">
+        <v>69756.72</v>
+      </c>
+      <c r="CM50">
+        <v>69756.72</v>
+      </c>
+      <c r="CN50">
+        <v>19531.8</v>
+      </c>
+      <c r="CO50">
+        <v>3458077.32</v>
+      </c>
+      <c r="CP50">
+        <v>6119500.1399999997</v>
+      </c>
+      <c r="CQ50">
+        <v>12210.78</v>
+      </c>
+      <c r="CR50">
+        <v>142078.79999999999</v>
+      </c>
+      <c r="CS50">
+        <v>36000</v>
+      </c>
+      <c r="CT50">
+        <v>60000</v>
+      </c>
+      <c r="CU50">
+        <v>8192.61</v>
+      </c>
+      <c r="CV50">
+        <v>3008077.32</v>
+      </c>
+      <c r="CW50">
+        <v>740006.61</v>
+      </c>
+      <c r="CX50">
+        <v>1</v>
+      </c>
+      <c r="CY50">
+        <v>5.5</v>
+      </c>
+      <c r="CZ50">
+        <v>1.5</v>
+      </c>
+      <c r="DA50">
+        <v>0</v>
+      </c>
+      <c r="DB50">
+        <v>6.2676078430999898</v>
+      </c>
+      <c r="DC50">
+        <v>0</v>
+      </c>
+      <c r="DD50">
+        <v>0</v>
+      </c>
+      <c r="DE50">
+        <v>0</v>
+      </c>
+      <c r="DF50">
+        <v>5.4170984455999998</v>
+      </c>
+      <c r="DG50">
+        <v>1</v>
+      </c>
+      <c r="DH50">
+        <v>2</v>
+      </c>
+      <c r="DI50">
+        <v>0</v>
+      </c>
+      <c r="DJ50">
+        <v>4</v>
+      </c>
+      <c r="DK50">
+        <v>0</v>
+      </c>
+      <c r="DL50">
+        <v>0</v>
+      </c>
+      <c r="DM50">
+        <v>0</v>
+      </c>
+      <c r="DN50">
+        <v>8</v>
+      </c>
+      <c r="DO50">
+        <v>15691.8</v>
+      </c>
+      <c r="DP50">
+        <v>1096.02</v>
+      </c>
+      <c r="DQ50">
+        <v>840000</v>
+      </c>
+      <c r="DR50">
+        <v>1</v>
+      </c>
+      <c r="DS50">
+        <v>6083691.8700000001</v>
+      </c>
+      <c r="DT50">
+        <v>432457.32</v>
+      </c>
+      <c r="DU50">
+        <v>36000</v>
+      </c>
+      <c r="DV50">
+        <v>1260</v>
+      </c>
+      <c r="DW50">
+        <v>145384.92000000001</v>
+      </c>
+      <c r="DX50">
+        <v>1039260</v>
+      </c>
+      <c r="DY50">
+        <v>210001.35</v>
+      </c>
+      <c r="DZ50">
+        <v>3410058.66</v>
+      </c>
+      <c r="EA50">
+        <v>450000</v>
+      </c>
+      <c r="EB50">
+        <v>182132.97</v>
+      </c>
+      <c r="EC50">
+        <v>1155003</v>
+      </c>
+      <c r="ED50">
+        <v>2310003</v>
+      </c>
+      <c r="EE50">
+        <v>96781.440000000002</v>
+      </c>
+      <c r="EF50">
+        <v>133730.57999999999</v>
+      </c>
+      <c r="EG50">
+        <v>69622.289999999994</v>
+      </c>
+      <c r="EH50">
+        <v>49581.27</v>
+      </c>
+      <c r="EI50">
+        <v>13207.32</v>
+      </c>
+      <c r="EJ50">
+        <v>209834.4</v>
+      </c>
+      <c r="EK50">
+        <v>2754476.46</v>
+      </c>
+      <c r="EL50">
+        <v>30000</v>
+      </c>
+      <c r="EM50">
+        <v>24</v>
+      </c>
+      <c r="EN50">
+        <v>30</v>
+      </c>
+      <c r="EO50">
+        <v>12</v>
+      </c>
+      <c r="EP50">
+        <v>21</v>
+      </c>
+      <c r="EQ50">
+        <v>12</v>
+      </c>
+      <c r="ER50">
+        <v>6</v>
+      </c>
+      <c r="ES50">
+        <v>24</v>
+      </c>
+      <c r="ET50">
+        <v>9</v>
+      </c>
+      <c r="EU50">
+        <v>39</v>
+      </c>
+      <c r="EV50">
+        <v>60</v>
+      </c>
+      <c r="EW50">
+        <v>123</v>
+      </c>
+      <c r="EX50">
+        <v>108</v>
+      </c>
+      <c r="EY50">
+        <v>96</v>
+      </c>
+      <c r="EZ50">
+        <v>234</v>
+      </c>
+      <c r="FA50">
+        <v>78</v>
+      </c>
+      <c r="FB50">
+        <v>267</v>
+      </c>
+      <c r="FC50">
+        <v>1</v>
+      </c>
+      <c r="FD50">
+        <v>1</v>
+      </c>
+      <c r="FE50">
+        <v>1</v>
+      </c>
+      <c r="FF50">
+        <v>1</v>
+      </c>
+      <c r="FG50">
+        <v>3</v>
+      </c>
+      <c r="FH50">
+        <v>3</v>
+      </c>
+      <c r="FI50">
+        <v>2</v>
+      </c>
+      <c r="FJ50">
+        <v>3</v>
+      </c>
+      <c r="FK50">
+        <v>1</v>
+      </c>
+      <c r="FL50">
+        <v>1</v>
+      </c>
+      <c r="FM50">
+        <v>438</v>
+      </c>
+      <c r="FN50">
+        <v>600</v>
+      </c>
+      <c r="FO50">
+        <v>210</v>
+      </c>
+      <c r="FP50">
+        <v>582</v>
+      </c>
+      <c r="FQ50">
+        <v>24</v>
+      </c>
+      <c r="FR50">
+        <v>24</v>
+      </c>
+      <c r="FS50">
+        <v>438</v>
+      </c>
+      <c r="FT50">
+        <v>438</v>
+      </c>
+      <c r="FU50">
+        <v>90</v>
+      </c>
+      <c r="FV50">
+        <v>156</v>
+      </c>
+      <c r="FW50">
+        <v>90</v>
+      </c>
+      <c r="FX50">
+        <v>156</v>
+      </c>
+      <c r="FY50">
+        <v>21</v>
+      </c>
+      <c r="FZ50">
+        <v>15</v>
+      </c>
+      <c r="GA50">
+        <v>180</v>
+      </c>
+      <c r="GB50">
+        <v>264</v>
+      </c>
+      <c r="GC50">
+        <v>1</v>
+      </c>
+      <c r="GD50">
+        <v>6</v>
+      </c>
+      <c r="GE50">
+        <v>6</v>
+      </c>
+      <c r="GF50">
+        <v>6</v>
+      </c>
+      <c r="GG50">
+        <v>39</v>
+      </c>
+      <c r="GH50">
+        <v>342</v>
+      </c>
+      <c r="GI50">
+        <v>339</v>
+      </c>
+      <c r="GJ50">
+        <v>510</v>
+      </c>
+      <c r="GK50">
+        <v>801</v>
+      </c>
+      <c r="GL50">
+        <v>812137.26</v>
+      </c>
+      <c r="GM50">
+        <v>1542339.36</v>
+      </c>
+      <c r="GN50">
+        <v>601428.6</v>
+      </c>
+      <c r="GO50">
+        <v>544365.56999999995</v>
+      </c>
+      <c r="GP50">
+        <v>231351.99</v>
+      </c>
+      <c r="GQ50">
+        <v>77586.210000000006</v>
+      </c>
+      <c r="GR50">
+        <v>228031.8</v>
+      </c>
+      <c r="GS50">
+        <v>177582</v>
+      </c>
+      <c r="GT50">
+        <v>3000538.14</v>
+      </c>
+      <c r="GU50">
+        <v>668335.31999999995</v>
+      </c>
+      <c r="GV50">
+        <v>3004185.6</v>
+      </c>
+      <c r="GW50">
+        <v>2272859.4300000002</v>
+      </c>
+      <c r="GX50">
+        <v>450000</v>
+      </c>
+      <c r="GY50">
+        <v>304838.7</v>
+      </c>
+      <c r="GZ50">
+        <v>1</v>
+      </c>
+      <c r="HA50">
+        <v>450000</v>
+      </c>
+      <c r="HB50">
+        <v>840000</v>
+      </c>
+      <c r="HC50">
+        <v>534000</v>
+      </c>
+      <c r="HD50">
+        <v>1500000</v>
+      </c>
+      <c r="HE50">
+        <v>1034482.74</v>
+      </c>
+      <c r="HF50">
+        <v>7741.95</v>
+      </c>
+      <c r="HG50">
+        <v>30000</v>
+      </c>
+      <c r="HH50">
+        <v>18870.990000000002</v>
+      </c>
+      <c r="HI50">
+        <v>4210084.2300000004</v>
+      </c>
+      <c r="HJ50">
+        <v>2368558.9500000002</v>
+      </c>
+      <c r="HK50">
+        <v>3998687.46</v>
+      </c>
+      <c r="HL50">
+        <v>3525776.88</v>
+      </c>
+      <c r="HM50">
+        <v>10430.01</v>
+      </c>
+      <c r="HN50">
+        <v>13793.67</v>
+      </c>
+      <c r="HO50">
+        <v>7331.34</v>
+      </c>
+      <c r="HP50">
+        <v>50003.88</v>
+      </c>
+      <c r="HQ50">
+        <v>20385.72</v>
+      </c>
+      <c r="HR50">
+        <v>138831.63</v>
+      </c>
+      <c r="HS50">
+        <v>91778.73</v>
+      </c>
+      <c r="HT50">
+        <v>438329.22</v>
+      </c>
+      <c r="HU50">
+        <v>24650.01</v>
+      </c>
+      <c r="HV50">
+        <v>681462.9</v>
+      </c>
+      <c r="HW50">
+        <v>397884.3</v>
+      </c>
+      <c r="HX50">
+        <v>22034738.760000002</v>
+      </c>
+      <c r="HY50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:233" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>12</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>7</v>
+      </c>
+      <c r="H51">
+        <v>11</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51">
+        <v>19</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>7</v>
+      </c>
+      <c r="O51">
+        <v>9</v>
+      </c>
+      <c r="P51">
+        <v>12</v>
+      </c>
+      <c r="Q51">
+        <v>8</v>
+      </c>
+      <c r="R51">
+        <v>9</v>
+      </c>
+      <c r="S51">
+        <v>12</v>
+      </c>
+      <c r="T51">
+        <v>8</v>
+      </c>
+      <c r="U51">
+        <v>6</v>
+      </c>
+      <c r="V51">
+        <v>3</v>
+      </c>
+      <c r="W51">
+        <v>3</v>
+      </c>
+      <c r="X51">
+        <v>3</v>
+      </c>
+      <c r="Y51">
+        <v>5</v>
+      </c>
+      <c r="Z51">
+        <v>5</v>
+      </c>
+      <c r="AA51">
+        <v>3</v>
+      </c>
+      <c r="AB51">
+        <v>2</v>
+      </c>
+      <c r="AC51">
+        <v>4</v>
+      </c>
+      <c r="AD51">
+        <v>7</v>
+      </c>
+      <c r="AE51">
+        <v>3</v>
+      </c>
+      <c r="AF51">
+        <v>3</v>
+      </c>
+      <c r="AG51">
+        <v>7</v>
+      </c>
+      <c r="AH51">
+        <v>7</v>
+      </c>
+      <c r="AI51">
+        <v>7</v>
+      </c>
+      <c r="AJ51">
+        <v>5</v>
+      </c>
+      <c r="AK51">
+        <v>4</v>
+      </c>
+      <c r="AL51">
+        <v>11</v>
+      </c>
+      <c r="AM51">
+        <v>9</v>
+      </c>
+      <c r="AN51">
+        <v>4</v>
+      </c>
+      <c r="AO51">
+        <v>3</v>
+      </c>
+      <c r="AP51">
+        <v>6</v>
+      </c>
+      <c r="AQ51">
+        <v>6</v>
+      </c>
+      <c r="AR51">
+        <v>6</v>
+      </c>
+      <c r="AS51">
+        <v>6</v>
+      </c>
+      <c r="AT51">
+        <v>15</v>
+      </c>
+      <c r="AU51">
+        <v>5</v>
+      </c>
+      <c r="AV51">
+        <v>15</v>
+      </c>
+      <c r="AW51">
+        <v>19</v>
+      </c>
+      <c r="AX51">
+        <v>10</v>
+      </c>
+      <c r="AY51">
+        <v>15</v>
+      </c>
+      <c r="AZ51">
+        <v>13</v>
+      </c>
+      <c r="BA51">
+        <v>9</v>
+      </c>
+      <c r="BB51">
+        <v>9</v>
+      </c>
+      <c r="BC51">
+        <v>15</v>
+      </c>
+      <c r="BD51">
+        <v>15</v>
+      </c>
+      <c r="BE51">
+        <v>11</v>
+      </c>
+      <c r="BF51">
+        <v>2</v>
+      </c>
+      <c r="BG51">
+        <v>7</v>
+      </c>
+      <c r="BH51">
+        <v>11</v>
+      </c>
+      <c r="BI51">
+        <v>9</v>
+      </c>
+      <c r="BJ51">
+        <v>5</v>
+      </c>
+      <c r="BK51">
+        <v>5</v>
+      </c>
+      <c r="BL51">
+        <v>4</v>
+      </c>
+      <c r="BM51">
+        <v>3</v>
+      </c>
+      <c r="BN51">
+        <v>7</v>
+      </c>
+      <c r="BO51">
+        <v>15</v>
+      </c>
+      <c r="BP51">
+        <v>11</v>
+      </c>
+      <c r="BQ51">
+        <v>11</v>
+      </c>
+      <c r="BR51">
+        <v>6</v>
+      </c>
+      <c r="BS51">
+        <v>3</v>
+      </c>
+      <c r="BT51">
+        <v>6</v>
+      </c>
+      <c r="BU51">
+        <v>2</v>
+      </c>
+      <c r="BV51">
+        <v>5</v>
+      </c>
+      <c r="BW51">
+        <v>3</v>
+      </c>
+      <c r="BX51">
+        <v>22</v>
+      </c>
+      <c r="BY51">
+        <v>48</v>
+      </c>
+      <c r="BZ51">
+        <v>3</v>
+      </c>
+      <c r="CA51">
+        <v>31</v>
+      </c>
+      <c r="CB51">
+        <v>5</v>
+      </c>
+      <c r="CC51">
+        <v>2</v>
+      </c>
+      <c r="CD51">
+        <v>47</v>
+      </c>
+      <c r="CE51">
+        <v>3</v>
+      </c>
+      <c r="CF51">
+        <v>22</v>
+      </c>
+      <c r="CG51">
+        <v>56</v>
+      </c>
+      <c r="CH51">
+        <v>111</v>
+      </c>
+      <c r="CI51">
+        <v>3</v>
+      </c>
+      <c r="CJ51">
+        <v>8</v>
+      </c>
+      <c r="CK51">
+        <v>5</v>
+      </c>
+      <c r="CL51">
+        <v>50</v>
+      </c>
+      <c r="CM51">
+        <v>49</v>
+      </c>
+      <c r="CN51">
+        <v>3</v>
+      </c>
+      <c r="CO51">
+        <v>8</v>
+      </c>
+      <c r="CP51">
+        <v>15</v>
+      </c>
+      <c r="CQ51">
+        <v>26</v>
+      </c>
+      <c r="CR51">
+        <v>48</v>
+      </c>
+      <c r="CS51">
+        <v>3</v>
+      </c>
+      <c r="CT51">
+        <v>29</v>
+      </c>
+      <c r="CU51">
+        <v>18</v>
+      </c>
+      <c r="CV51">
+        <v>7</v>
+      </c>
+      <c r="CW51">
+        <v>39</v>
+      </c>
+      <c r="CX51">
+        <v>2</v>
+      </c>
+      <c r="CY51">
+        <v>26</v>
+      </c>
+      <c r="CZ51">
+        <v>6</v>
+      </c>
+      <c r="DA51">
+        <v>8</v>
+      </c>
+      <c r="DB51">
+        <v>16</v>
+      </c>
+      <c r="DC51">
+        <v>2</v>
+      </c>
+      <c r="DD51">
+        <v>2</v>
+      </c>
+      <c r="DE51">
+        <v>2</v>
+      </c>
+      <c r="DF51">
+        <v>4</v>
+      </c>
+      <c r="DG51">
+        <v>5</v>
+      </c>
+      <c r="DH51">
+        <v>5</v>
+      </c>
+      <c r="DI51">
+        <v>3</v>
+      </c>
+      <c r="DJ51">
+        <v>8</v>
+      </c>
+      <c r="DK51">
+        <v>2</v>
+      </c>
+      <c r="DL51">
+        <v>2</v>
+      </c>
+      <c r="DM51">
+        <v>2</v>
+      </c>
+      <c r="DN51">
+        <v>4</v>
+      </c>
+      <c r="DO51">
+        <v>3</v>
+      </c>
+      <c r="DP51">
+        <v>3</v>
+      </c>
+      <c r="DQ51">
+        <v>68</v>
+      </c>
+      <c r="DR51">
+        <v>2</v>
+      </c>
+      <c r="DS51">
+        <v>20</v>
+      </c>
+      <c r="DT51">
+        <v>42</v>
+      </c>
+      <c r="DU51">
+        <v>16</v>
+      </c>
+      <c r="DV51">
+        <v>6</v>
+      </c>
+      <c r="DW51">
+        <v>4</v>
+      </c>
+      <c r="DX51">
+        <v>4</v>
+      </c>
+      <c r="DY51">
+        <v>33</v>
+      </c>
+      <c r="DZ51">
+        <v>85</v>
+      </c>
+      <c r="EA51">
+        <v>33</v>
+      </c>
+      <c r="EB51">
+        <v>20</v>
+      </c>
+      <c r="EC51">
+        <v>4</v>
+      </c>
+      <c r="ED51">
+        <v>3</v>
+      </c>
+      <c r="EE51">
+        <v>3</v>
+      </c>
+      <c r="EF51">
+        <v>5</v>
+      </c>
+      <c r="EG51">
+        <v>5</v>
+      </c>
+      <c r="EH51">
+        <v>7</v>
+      </c>
+      <c r="EI51">
+        <v>6</v>
+      </c>
+      <c r="EJ51">
+        <v>4</v>
+      </c>
+      <c r="EK51">
+        <v>45</v>
+      </c>
+      <c r="EL51">
+        <v>5</v>
+      </c>
+      <c r="EM51">
+        <v>8</v>
+      </c>
+      <c r="EN51">
+        <v>7</v>
+      </c>
+      <c r="EO51">
+        <v>5</v>
+      </c>
+      <c r="EP51">
+        <v>8</v>
+      </c>
+      <c r="EQ51">
+        <v>4</v>
+      </c>
+      <c r="ER51">
+        <v>3</v>
+      </c>
+      <c r="ES51">
+        <v>6</v>
+      </c>
+      <c r="ET51">
+        <v>4</v>
+      </c>
+      <c r="EU51">
+        <v>10</v>
+      </c>
+      <c r="EV51">
+        <v>9</v>
+      </c>
+      <c r="EW51">
+        <v>6</v>
+      </c>
+      <c r="EX51">
+        <v>4</v>
+      </c>
+      <c r="EY51">
+        <v>6</v>
+      </c>
+      <c r="EZ51">
+        <v>11</v>
+      </c>
+      <c r="FA51">
+        <v>8</v>
+      </c>
+      <c r="FB51">
+        <v>11</v>
+      </c>
+      <c r="FC51">
+        <v>2</v>
+      </c>
+      <c r="FD51">
+        <v>2</v>
+      </c>
+      <c r="FE51">
+        <v>2</v>
+      </c>
+      <c r="FF51">
+        <v>2</v>
+      </c>
+      <c r="FG51">
+        <v>4</v>
+      </c>
+      <c r="FH51">
+        <v>4</v>
+      </c>
+      <c r="FI51">
+        <v>3</v>
+      </c>
+      <c r="FJ51">
+        <v>4</v>
+      </c>
+      <c r="FK51">
+        <v>2</v>
+      </c>
+      <c r="FL51">
+        <v>2</v>
+      </c>
+      <c r="FM51">
+        <v>20</v>
+      </c>
+      <c r="FN51">
+        <v>15</v>
+      </c>
+      <c r="FO51">
+        <v>6</v>
+      </c>
+      <c r="FP51">
+        <v>13</v>
+      </c>
+      <c r="FQ51">
+        <v>7</v>
+      </c>
+      <c r="FR51">
+        <v>5</v>
+      </c>
+      <c r="FS51">
+        <v>17</v>
+      </c>
+      <c r="FT51">
+        <v>12</v>
+      </c>
+      <c r="FU51">
+        <v>9</v>
+      </c>
+      <c r="FV51">
+        <v>18</v>
+      </c>
+      <c r="FW51">
+        <v>10</v>
+      </c>
+      <c r="FX51">
+        <v>18</v>
+      </c>
+      <c r="FY51">
+        <v>5</v>
+      </c>
+      <c r="FZ51">
+        <v>6</v>
+      </c>
+      <c r="GA51">
+        <v>3</v>
+      </c>
+      <c r="GB51">
+        <v>6</v>
+      </c>
+      <c r="GC51">
+        <v>2</v>
+      </c>
+      <c r="GD51">
+        <v>3</v>
+      </c>
+      <c r="GE51">
+        <v>3</v>
+      </c>
+      <c r="GF51">
+        <v>3</v>
+      </c>
+      <c r="GG51">
+        <v>9</v>
+      </c>
+      <c r="GH51">
+        <v>16</v>
+      </c>
+      <c r="GI51">
+        <v>4</v>
+      </c>
+      <c r="GJ51">
+        <v>30</v>
+      </c>
+      <c r="GK51">
+        <v>13</v>
+      </c>
+      <c r="GL51">
+        <v>28</v>
+      </c>
+      <c r="GM51">
+        <v>31</v>
+      </c>
+      <c r="GN51">
+        <v>48</v>
+      </c>
+      <c r="GO51">
+        <v>108</v>
+      </c>
+      <c r="GP51">
+        <v>29</v>
+      </c>
+      <c r="GQ51">
+        <v>82</v>
+      </c>
+      <c r="GR51">
+        <v>25</v>
+      </c>
+      <c r="GS51">
+        <v>21</v>
+      </c>
+      <c r="GT51">
+        <v>8</v>
+      </c>
+      <c r="GU51">
+        <v>64</v>
+      </c>
+      <c r="GV51">
+        <v>5</v>
+      </c>
+      <c r="GW51">
+        <v>5</v>
+      </c>
+      <c r="GX51">
+        <v>94</v>
+      </c>
+      <c r="GY51">
+        <v>34</v>
+      </c>
+      <c r="GZ51">
+        <v>2</v>
+      </c>
+      <c r="HA51">
+        <v>138</v>
+      </c>
+      <c r="HB51">
+        <v>30</v>
+      </c>
+      <c r="HC51">
+        <v>45</v>
+      </c>
+      <c r="HD51">
+        <v>31</v>
+      </c>
+      <c r="HE51">
+        <v>72</v>
+      </c>
+      <c r="HF51">
+        <v>3</v>
+      </c>
+      <c r="HG51">
+        <v>3</v>
+      </c>
+      <c r="HH51">
+        <v>3</v>
+      </c>
+      <c r="HI51">
+        <v>88</v>
+      </c>
+      <c r="HJ51">
+        <v>18</v>
+      </c>
+      <c r="HK51">
+        <v>119</v>
+      </c>
+      <c r="HL51">
+        <v>119</v>
+      </c>
+      <c r="HM51">
+        <v>5</v>
+      </c>
+      <c r="HN51">
+        <v>4</v>
+      </c>
+      <c r="HO51">
+        <v>4</v>
+      </c>
+      <c r="HP51">
+        <v>43</v>
+      </c>
+      <c r="HQ51">
+        <v>24</v>
+      </c>
+      <c r="HR51">
+        <v>48</v>
+      </c>
+      <c r="HS51">
+        <v>48</v>
+      </c>
+      <c r="HT51">
+        <v>99</v>
+      </c>
+      <c r="HU51">
+        <v>33</v>
+      </c>
+      <c r="HV51">
+        <v>22</v>
+      </c>
+      <c r="HW51">
+        <v>36</v>
+      </c>
+      <c r="HX51">
+        <v>39</v>
+      </c>
+      <c r="HY51">
         <v>2</v>
       </c>
     </row>
@@ -22644,7 +29842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C375E8-8289-8849-9872-29B3FCE57708}">
   <dimension ref="A1:CX26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView zoomScale="134" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:XFD53"/>
     </sheetView>
   </sheetViews>
